--- a/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>3.872641213332258</v>
       </c>
       <c r="C2">
-        <v>1.106427144453249</v>
+        <v>1.106427144453193</v>
       </c>
       <c r="D2">
-        <v>0.06938334016130376</v>
+        <v>0.069383340161286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.666705330780275</v>
+        <v>6.666705330780303</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.087163578095684</v>
+        <v>2.087163578095712</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.296307247924631</v>
+        <v>3.296307247924972</v>
       </c>
       <c r="C3">
-        <v>0.9402105398173148</v>
+        <v>0.9402105398176275</v>
       </c>
       <c r="D3">
-        <v>0.06155492442481503</v>
+        <v>0.06155492442475108</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.750956910658573</v>
+        <v>5.750956910658601</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.954759581039923</v>
       </c>
       <c r="C4">
-        <v>0.8419607999780681</v>
+        <v>0.8419607999779828</v>
       </c>
       <c r="D4">
-        <v>0.05714134177751085</v>
+        <v>0.05714134177718933</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.212644422917123</v>
+        <v>5.212644422917151</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.557391939159913</v>
+        <v>1.557391939159942</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.818106321981816</v>
+        <v>2.818106321981588</v>
       </c>
       <c r="C5">
-        <v>0.8026931957555519</v>
+        <v>0.8026931957552108</v>
       </c>
       <c r="D5">
-        <v>0.05541833645152394</v>
+        <v>0.05541833645095728</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.998241261552181</v>
+        <v>4.998241261552209</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.480411843089968</v>
+        <v>1.480411843089954</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.79555316995868</v>
+        <v>2.795553169958566</v>
       </c>
       <c r="C6">
-        <v>0.7962144897005601</v>
+        <v>0.7962144897005317</v>
       </c>
       <c r="D6">
-        <v>0.05513621302307392</v>
+        <v>0.05513621302284299</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.962911915591093</v>
+        <v>4.96291191559115</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.952907063520684</v>
+        <v>2.952907063520854</v>
       </c>
       <c r="C7">
         <v>0.8414283292498226</v>
       </c>
       <c r="D7">
-        <v>0.0571178257562579</v>
+        <v>0.05711782575659541</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.556345213840288</v>
+        <v>1.556345213840331</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.670987518439119</v>
+        <v>3.67098751843929</v>
       </c>
       <c r="C8">
-        <v>1.048200793965151</v>
+        <v>1.048200793965464</v>
       </c>
       <c r="D8">
-        <v>0.06658667649059069</v>
+        <v>0.06658667649054451</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.968810912772085</v>
+        <v>1.968810912772071</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.209610529774693</v>
+        <v>5.209610529774864</v>
       </c>
       <c r="C9">
-        <v>1.494803142975513</v>
+        <v>1.494803142975286</v>
       </c>
       <c r="D9">
-        <v>0.08972426412677592</v>
+        <v>0.08972426412683276</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.823146763444015</v>
+        <v>8.82314676344393</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.902963025099396</v>
+        <v>2.902963025099339</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.482117430351593</v>
+        <v>6.48211743035165</v>
       </c>
       <c r="C10">
-        <v>1.869192324562334</v>
+        <v>1.869192324561993</v>
       </c>
       <c r="D10">
-        <v>0.112600468732527</v>
+        <v>0.1126004687331985</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.91334859154063</v>
+        <v>10.91334859154045</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.738061083256511</v>
+        <v>3.738061083256412</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.114034697194711</v>
+        <v>7.114034697194541</v>
       </c>
       <c r="C11">
-        <v>2.057232573633939</v>
+        <v>2.057232573633542</v>
       </c>
       <c r="D11">
-        <v>0.1255457355123504</v>
+        <v>0.1255457355125067</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.96425619382848</v>
+        <v>11.9642561938287</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.178679736981124</v>
+        <v>4.178679736981096</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.363923234444201</v>
+        <v>7.363923234443689</v>
       </c>
       <c r="C12">
-        <v>2.132034186933254</v>
+        <v>2.132034186933311</v>
       </c>
       <c r="D12">
-        <v>0.1310032477069605</v>
+        <v>0.1310032477073939</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.35842468763343</v>
+        <v>4.358424687633459</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.309570580540367</v>
+        <v>7.309570580540424</v>
       </c>
       <c r="C13">
-        <v>2.115741861021093</v>
+        <v>2.115741861020979</v>
       </c>
       <c r="D13">
-        <v>0.1297988253197744</v>
+        <v>0.1297988253197104</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>12.29115721044417</v>
+        <v>12.29115721044445</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.31904639675372</v>
+        <v>4.319046396753791</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.134358584068025</v>
+        <v>7.134358584067911</v>
       </c>
       <c r="C14">
-        <v>2.063306592054687</v>
+        <v>2.06330659205463</v>
       </c>
       <c r="D14">
-        <v>0.1259820819077397</v>
+        <v>0.1259820819079529</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.99819633893293</v>
+        <v>11.99819633893298</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.19317641551774</v>
+        <v>4.193176415517769</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.028528495930971</v>
+        <v>7.028528495931596</v>
       </c>
       <c r="C15">
-        <v>2.031696592974299</v>
+        <v>2.031696592974754</v>
       </c>
       <c r="D15">
-        <v>0.1237241654067063</v>
+        <v>0.1237241654069123</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.8215598858647</v>
+        <v>11.82155988586481</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.117920814245522</v>
+        <v>4.117920814245608</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.442111238449343</v>
+        <v>6.442111238449399</v>
       </c>
       <c r="C16">
-        <v>1.85733863201483</v>
+        <v>1.857338632013466</v>
       </c>
       <c r="D16">
-        <v>0.1118194374526276</v>
+        <v>0.1118194374529793</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.8471021000027</v>
+        <v>10.84710210000293</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.710793389207836</v>
+        <v>3.710793389207851</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.097672462488276</v>
+        <v>6.097672462488049</v>
       </c>
       <c r="C17">
-        <v>1.755518757197422</v>
+        <v>1.755518757197478</v>
       </c>
       <c r="D17">
-        <v>0.1052713190224566</v>
+        <v>0.1052713190227443</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.2781597665531</v>
+        <v>10.2781597665529</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.478906952404984</v>
+        <v>3.478906952404998</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.904320759209554</v>
+        <v>5.904320759209781</v>
       </c>
       <c r="C18">
-        <v>1.698540853375903</v>
+        <v>1.698540853375846</v>
       </c>
       <c r="D18">
-        <v>0.1017284541488053</v>
+        <v>0.1017284541489047</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.959900498587785</v>
+        <v>9.959900498588013</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.83960265076837</v>
+        <v>5.839602650768029</v>
       </c>
       <c r="C19">
-        <v>1.679497069351498</v>
+        <v>1.679497069351555</v>
       </c>
       <c r="D19">
-        <v>0.1005630735985505</v>
+        <v>0.100563073598785</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.853554577251117</v>
+        <v>9.853554577251089</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.308405681042899</v>
+        <v>3.308405681042842</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.13382855050844</v>
+        <v>6.133828550508269</v>
       </c>
       <c r="C20">
         <v>1.766187436737994</v>
       </c>
       <c r="D20">
-        <v>0.1059442037866951</v>
+        <v>0.1059442037871534</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.33776266037336</v>
+        <v>10.3377626603733</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.185504072681283</v>
+        <v>7.185504072680942</v>
       </c>
       <c r="C21">
-        <v>2.078599528933637</v>
+        <v>2.078599528933239</v>
       </c>
       <c r="D21">
-        <v>0.1270859691071955</v>
+        <v>0.1270859691070108</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>12.08364617633231</v>
+        <v>12.08364617633225</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.229752114762235</v>
+        <v>4.229752114762277</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>7.93726418626369</v>
       </c>
       <c r="C22">
-        <v>2.304692924680296</v>
+        <v>2.304692924679841</v>
       </c>
       <c r="D22">
-        <v>0.1443367642159963</v>
+        <v>0.1443367642159856</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>13.34604727492302</v>
+        <v>13.34604727492319</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.784026244216918</v>
+        <v>4.784026244217017</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.528715681778692</v>
+        <v>7.528715681778522</v>
       </c>
       <c r="C23">
-        <v>2.181509180291812</v>
+        <v>2.181509180291471</v>
       </c>
       <c r="D23">
-        <v>0.1347159427158786</v>
+        <v>0.1347159427158964</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.478807565116156</v>
+        <v>4.478807565116085</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.117468035913873</v>
+        <v>6.117468035913987</v>
       </c>
       <c r="C24">
-        <v>1.76135933913514</v>
+        <v>1.761359339136277</v>
       </c>
       <c r="D24">
-        <v>0.1056393144027972</v>
+        <v>0.1056393144029499</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10.31078905542225</v>
+        <v>10.31078905542242</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.492097609214611</v>
+        <v>3.492097609214667</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.774061112169193</v>
+        <v>4.774061112169136</v>
       </c>
       <c r="C25">
-        <v>1.367788333716192</v>
+        <v>1.367788333716589</v>
       </c>
       <c r="D25">
-        <v>0.08272812607478386</v>
+        <v>0.08272812607505386</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.115980341275417</v>
+        <v>8.115980341275247</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.630920903223554</v>
+        <v>2.630920903223583</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>3.872641213332258</v>
       </c>
       <c r="C2">
-        <v>1.106427144453193</v>
+        <v>1.106427144453249</v>
       </c>
       <c r="D2">
-        <v>0.069383340161286</v>
+        <v>0.06938334016130376</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.666705330780303</v>
+        <v>6.666705330780275</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.087163578095712</v>
+        <v>2.087163578095684</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.296307247924972</v>
+        <v>3.296307247924631</v>
       </c>
       <c r="C3">
-        <v>0.9402105398176275</v>
+        <v>0.9402105398173148</v>
       </c>
       <c r="D3">
-        <v>0.06155492442475108</v>
+        <v>0.06155492442481503</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.750956910658601</v>
+        <v>5.750956910658573</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.954759581039923</v>
       </c>
       <c r="C4">
-        <v>0.8419607999779828</v>
+        <v>0.8419607999780681</v>
       </c>
       <c r="D4">
-        <v>0.05714134177718933</v>
+        <v>0.05714134177751085</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.212644422917151</v>
+        <v>5.212644422917123</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.557391939159942</v>
+        <v>1.557391939159913</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.818106321981588</v>
+        <v>2.818106321981816</v>
       </c>
       <c r="C5">
-        <v>0.8026931957552108</v>
+        <v>0.8026931957555519</v>
       </c>
       <c r="D5">
-        <v>0.05541833645095728</v>
+        <v>0.05541833645152394</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.998241261552209</v>
+        <v>4.998241261552181</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.480411843089954</v>
+        <v>1.480411843089968</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.795553169958566</v>
+        <v>2.79555316995868</v>
       </c>
       <c r="C6">
-        <v>0.7962144897005317</v>
+        <v>0.7962144897005601</v>
       </c>
       <c r="D6">
-        <v>0.05513621302284299</v>
+        <v>0.05513621302307392</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.96291191559115</v>
+        <v>4.962911915591093</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.952907063520854</v>
+        <v>2.952907063520684</v>
       </c>
       <c r="C7">
         <v>0.8414283292498226</v>
       </c>
       <c r="D7">
-        <v>0.05711782575659541</v>
+        <v>0.0571178257562579</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.556345213840331</v>
+        <v>1.556345213840288</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.67098751843929</v>
+        <v>3.670987518439119</v>
       </c>
       <c r="C8">
-        <v>1.048200793965464</v>
+        <v>1.048200793965151</v>
       </c>
       <c r="D8">
-        <v>0.06658667649054451</v>
+        <v>0.06658667649059069</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.968810912772071</v>
+        <v>1.968810912772085</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.209610529774864</v>
+        <v>5.209610529774693</v>
       </c>
       <c r="C9">
-        <v>1.494803142975286</v>
+        <v>1.494803142975513</v>
       </c>
       <c r="D9">
-        <v>0.08972426412683276</v>
+        <v>0.08972426412677592</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.82314676344393</v>
+        <v>8.823146763444015</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.902963025099339</v>
+        <v>2.902963025099396</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.48211743035165</v>
+        <v>6.482117430351593</v>
       </c>
       <c r="C10">
-        <v>1.869192324561993</v>
+        <v>1.869192324562334</v>
       </c>
       <c r="D10">
-        <v>0.1126004687331985</v>
+        <v>0.112600468732527</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.91334859154045</v>
+        <v>10.91334859154063</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.738061083256412</v>
+        <v>3.738061083256511</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.114034697194541</v>
+        <v>7.114034697194711</v>
       </c>
       <c r="C11">
-        <v>2.057232573633542</v>
+        <v>2.057232573633939</v>
       </c>
       <c r="D11">
-        <v>0.1255457355125067</v>
+        <v>0.1255457355123504</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.9642561938287</v>
+        <v>11.96425619382848</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.178679736981096</v>
+        <v>4.178679736981124</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.363923234443689</v>
+        <v>7.363923234444201</v>
       </c>
       <c r="C12">
-        <v>2.132034186933311</v>
+        <v>2.132034186933254</v>
       </c>
       <c r="D12">
-        <v>0.1310032477073939</v>
+        <v>0.1310032477069605</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.358424687633459</v>
+        <v>4.35842468763343</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.309570580540424</v>
+        <v>7.309570580540367</v>
       </c>
       <c r="C13">
-        <v>2.115741861020979</v>
+        <v>2.115741861021093</v>
       </c>
       <c r="D13">
-        <v>0.1297988253197104</v>
+        <v>0.1297988253197744</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>12.29115721044445</v>
+        <v>12.29115721044417</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.319046396753791</v>
+        <v>4.31904639675372</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.134358584067911</v>
+        <v>7.134358584068025</v>
       </c>
       <c r="C14">
-        <v>2.06330659205463</v>
+        <v>2.063306592054687</v>
       </c>
       <c r="D14">
-        <v>0.1259820819079529</v>
+        <v>0.1259820819077397</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.99819633893298</v>
+        <v>11.99819633893293</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.193176415517769</v>
+        <v>4.19317641551774</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.028528495931596</v>
+        <v>7.028528495930971</v>
       </c>
       <c r="C15">
-        <v>2.031696592974754</v>
+        <v>2.031696592974299</v>
       </c>
       <c r="D15">
-        <v>0.1237241654069123</v>
+        <v>0.1237241654067063</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.82155988586481</v>
+        <v>11.8215598858647</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.117920814245608</v>
+        <v>4.117920814245522</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.442111238449399</v>
+        <v>6.442111238449343</v>
       </c>
       <c r="C16">
-        <v>1.857338632013466</v>
+        <v>1.85733863201483</v>
       </c>
       <c r="D16">
-        <v>0.1118194374529793</v>
+        <v>0.1118194374526276</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.84710210000293</v>
+        <v>10.8471021000027</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.710793389207851</v>
+        <v>3.710793389207836</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.097672462488049</v>
+        <v>6.097672462488276</v>
       </c>
       <c r="C17">
-        <v>1.755518757197478</v>
+        <v>1.755518757197422</v>
       </c>
       <c r="D17">
-        <v>0.1052713190227443</v>
+        <v>0.1052713190224566</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.2781597665529</v>
+        <v>10.2781597665531</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.478906952404998</v>
+        <v>3.478906952404984</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.904320759209781</v>
+        <v>5.904320759209554</v>
       </c>
       <c r="C18">
-        <v>1.698540853375846</v>
+        <v>1.698540853375903</v>
       </c>
       <c r="D18">
-        <v>0.1017284541489047</v>
+        <v>0.1017284541488053</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.959900498588013</v>
+        <v>9.959900498587785</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.839602650768029</v>
+        <v>5.83960265076837</v>
       </c>
       <c r="C19">
-        <v>1.679497069351555</v>
+        <v>1.679497069351498</v>
       </c>
       <c r="D19">
-        <v>0.100563073598785</v>
+        <v>0.1005630735985505</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.853554577251089</v>
+        <v>9.853554577251117</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.308405681042842</v>
+        <v>3.308405681042899</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.133828550508269</v>
+        <v>6.13382855050844</v>
       </c>
       <c r="C20">
         <v>1.766187436737994</v>
       </c>
       <c r="D20">
-        <v>0.1059442037871534</v>
+        <v>0.1059442037866951</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.3377626603733</v>
+        <v>10.33776266037336</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.185504072680942</v>
+        <v>7.185504072681283</v>
       </c>
       <c r="C21">
-        <v>2.078599528933239</v>
+        <v>2.078599528933637</v>
       </c>
       <c r="D21">
-        <v>0.1270859691070108</v>
+        <v>0.1270859691071955</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>12.08364617633225</v>
+        <v>12.08364617633231</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.229752114762277</v>
+        <v>4.229752114762235</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>7.93726418626369</v>
       </c>
       <c r="C22">
-        <v>2.304692924679841</v>
+        <v>2.304692924680296</v>
       </c>
       <c r="D22">
-        <v>0.1443367642159856</v>
+        <v>0.1443367642159963</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>13.34604727492319</v>
+        <v>13.34604727492302</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.784026244217017</v>
+        <v>4.784026244216918</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.528715681778522</v>
+        <v>7.528715681778692</v>
       </c>
       <c r="C23">
-        <v>2.181509180291471</v>
+        <v>2.181509180291812</v>
       </c>
       <c r="D23">
-        <v>0.1347159427158964</v>
+        <v>0.1347159427158786</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.478807565116085</v>
+        <v>4.478807565116156</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.117468035913987</v>
+        <v>6.117468035913873</v>
       </c>
       <c r="C24">
-        <v>1.761359339136277</v>
+        <v>1.76135933913514</v>
       </c>
       <c r="D24">
-        <v>0.1056393144029499</v>
+        <v>0.1056393144027972</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10.31078905542242</v>
+        <v>10.31078905542225</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.492097609214667</v>
+        <v>3.492097609214611</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.774061112169136</v>
+        <v>4.774061112169193</v>
       </c>
       <c r="C25">
-        <v>1.367788333716589</v>
+        <v>1.367788333716192</v>
       </c>
       <c r="D25">
-        <v>0.08272812607505386</v>
+        <v>0.08272812607478386</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.115980341275247</v>
+        <v>8.115980341275417</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.630920903223583</v>
+        <v>2.630920903223554</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.872641213332258</v>
+        <v>3.829158138886328</v>
       </c>
       <c r="C2">
-        <v>1.106427144453249</v>
+        <v>1.0858240613845</v>
       </c>
       <c r="D2">
-        <v>0.06938334016130376</v>
+        <v>0.07447806886206898</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.666705330780275</v>
+        <v>6.656321541969874</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007475424882247884</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.087163578095684</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.074161434708586</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.296307247924631</v>
+        <v>3.260300685118921</v>
       </c>
       <c r="C3">
-        <v>0.9402105398173148</v>
+        <v>0.9222668402166505</v>
       </c>
       <c r="D3">
-        <v>0.06155492442481503</v>
+        <v>0.06649039752817565</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.750956910658573</v>
+        <v>5.750528338594222</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007615778117435745</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.751887206313171</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.741503573934054</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.954759581039923</v>
+        <v>2.923195882127516</v>
       </c>
       <c r="C4">
-        <v>0.8419607999780681</v>
+        <v>0.825595848774185</v>
       </c>
       <c r="D4">
-        <v>0.05714134177751085</v>
+        <v>0.06197468122331884</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.212644422917123</v>
+        <v>5.21798245405077</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007702358458681642</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.557391939159913</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.548423536495662</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.818106321981816</v>
+        <v>2.788328443372961</v>
       </c>
       <c r="C5">
-        <v>0.8026931957555519</v>
+        <v>0.7869625833667158</v>
       </c>
       <c r="D5">
-        <v>0.05541833645152394</v>
+        <v>0.06020915829663842</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.998241261552181</v>
+        <v>5.005864546311557</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007737835751728804</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.480411843089968</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.471983898189521</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.79555316995868</v>
+        <v>2.766070644799811</v>
       </c>
       <c r="C6">
-        <v>0.7962144897005601</v>
+        <v>0.7805887784306265</v>
       </c>
       <c r="D6">
-        <v>0.05513621302307392</v>
+        <v>0.05991992471988006</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.962911915591093</v>
+        <v>4.97091131176154</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007743740949599293</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.467752228796542</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.459412127554728</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.952907063520684</v>
+        <v>2.921367534386945</v>
       </c>
       <c r="C7">
-        <v>0.8414283292498226</v>
+        <v>0.8250719641758906</v>
       </c>
       <c r="D7">
-        <v>0.0571178257562579</v>
+        <v>0.0619505952348689</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.209734081331476</v>
+        <v>5.2151031684636</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007702836016429724</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.556345213840288</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.54738423324504</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.670987518439119</v>
+        <v>3.630121548828299</v>
       </c>
       <c r="C8">
-        <v>1.048200793965151</v>
+        <v>1.028529052474397</v>
       </c>
       <c r="D8">
-        <v>0.06658667649059069</v>
+        <v>0.07162754894001466</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.345280869928644</v>
+        <v>6.338416742677623</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007523797170038899</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.968810912772085</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.95676016338723</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.209610529774693</v>
+        <v>5.148488928754773</v>
       </c>
       <c r="C9">
-        <v>1.494803142975513</v>
+        <v>1.467906340380296</v>
       </c>
       <c r="D9">
-        <v>0.08972426412677592</v>
+        <v>0.0951213260498136</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.823146763444015</v>
+        <v>8.788120035259851</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007170476588820173</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.902963025099396</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.882483721519364</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.482117430351593</v>
+        <v>6.403151864781307</v>
       </c>
       <c r="C10">
-        <v>1.869192324562334</v>
+        <v>1.835888704397576</v>
       </c>
       <c r="D10">
-        <v>0.112600468732527</v>
+        <v>0.1181734266928025</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.91334859154063</v>
+        <v>10.85188985792814</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006899044815892754</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.738061083256511</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.707857880649925</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.114034697194711</v>
+        <v>7.025538332443148</v>
       </c>
       <c r="C11">
-        <v>2.057232573633939</v>
+        <v>2.02048639130652</v>
       </c>
       <c r="D11">
-        <v>0.1255457355123504</v>
+        <v>0.1311473718971108</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.96425619382848</v>
+        <v>11.88811573076845</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006769206340967933</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.178679736981124</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.142247037578059</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.363923234444201</v>
+        <v>7.271489612090136</v>
       </c>
       <c r="C12">
-        <v>2.132034186933254</v>
+        <v>2.093861199684966</v>
       </c>
       <c r="D12">
-        <v>0.1310032477069605</v>
+        <v>0.1366017697551634</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>12.38216922315354</v>
+        <v>12.29985610514143</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006718609166678237</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.35842468763343</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.319186585601614</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.309570580540367</v>
+        <v>7.218002510579083</v>
       </c>
       <c r="C13">
-        <v>2.115741861021093</v>
+        <v>2.077882778589924</v>
       </c>
       <c r="D13">
-        <v>0.1297988253197744</v>
+        <v>0.135398815865365</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>12.29115721044417</v>
+        <v>12.21020631700236</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006729580911901497</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.31904639675372</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.280437080674162</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.134358584068025</v>
+        <v>7.045545915016021</v>
       </c>
       <c r="C14">
-        <v>2.063306592054687</v>
+        <v>2.026445888857154</v>
       </c>
       <c r="D14">
-        <v>0.1259820819077397</v>
+        <v>0.1315838026279543</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.99819633893293</v>
+        <v>11.92156226315444</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006765076243236394</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.19317641551774</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.156523494612046</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.028528495930971</v>
+        <v>6.941355653784115</v>
       </c>
       <c r="C15">
-        <v>2.031696592974299</v>
+        <v>1.995429411165162</v>
       </c>
       <c r="D15">
-        <v>0.1237241654067063</v>
+        <v>0.1293248263894142</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.8215598858647</v>
+        <v>11.74748050463364</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006786612207371765</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.117920814245522</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.082399973104629</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.442111238449343</v>
+        <v>6.36373120155406</v>
       </c>
       <c r="C16">
-        <v>1.85733863201483</v>
+        <v>1.824246009030389</v>
       </c>
       <c r="D16">
-        <v>0.1118194374526276</v>
+        <v>0.1173890469660819</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.8471021000027</v>
+        <v>10.78653298668507</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006907363388762455</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.710793389207836</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>3.680948062703422</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.097672462488276</v>
+        <v>6.024258353059849</v>
       </c>
       <c r="C17">
-        <v>1.755518757197422</v>
+        <v>1.724213424333925</v>
       </c>
       <c r="D17">
-        <v>0.1052713190224566</v>
+        <v>0.1108055728139128</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.2781597665531</v>
+        <v>10.22507632175748</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006979513950179346</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.478906952404984</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3.451986618691464</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.904320759209554</v>
+        <v>5.833640239385318</v>
       </c>
       <c r="C18">
-        <v>1.698540853375903</v>
+        <v>1.668217745156483</v>
       </c>
       <c r="D18">
-        <v>0.1017284541488053</v>
+        <v>0.1072381131276288</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.959900498587785</v>
+        <v>9.910891655404754</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007020454811673728</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.350911937221682</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3.325519850478003</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.83960265076837</v>
+        <v>5.769829229836091</v>
       </c>
       <c r="C19">
-        <v>1.679497069351498</v>
+        <v>1.649499651595988</v>
       </c>
       <c r="D19">
-        <v>0.1005630735985505</v>
+        <v>0.1060637949082945</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.853554577251117</v>
+        <v>9.805890478819464</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000703423286342356</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.308405681042899</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3.283508238310546</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.13382855050844</v>
+        <v>6.05989916486044</v>
       </c>
       <c r="C20">
-        <v>1.766187436737994</v>
+        <v>1.734696829758093</v>
       </c>
       <c r="D20">
-        <v>0.1059442037866951</v>
+        <v>0.1114826930529205</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.33776266037336</v>
+        <v>10.28390746753033</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006971894157815701</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.503011627342133</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.475796806309276</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.185504072681283</v>
+        <v>7.095892428718912</v>
       </c>
       <c r="C21">
-        <v>2.078599528933637</v>
+        <v>2.041449469815063</v>
       </c>
       <c r="D21">
-        <v>0.1270859691071955</v>
+        <v>0.1326876450969934</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>12.08364617633231</v>
+        <v>12.00576346971957</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006754694647443406</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.229752114762235</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.192538943178022</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.93726418626369</v>
+        <v>7.835347369958299</v>
       </c>
       <c r="C22">
-        <v>2.304692924680296</v>
+        <v>2.263071557750209</v>
       </c>
       <c r="D22">
-        <v>0.1443367642159963</v>
+        <v>0.1498889847423932</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>13.34604727492302</v>
+        <v>13.24862094003356</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006603932179788825</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.784026244216918</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.737437805096747</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.528715681778692</v>
+        <v>7.433624598743677</v>
       </c>
       <c r="C23">
-        <v>2.181509180291812</v>
+        <v>2.14237156494363</v>
       </c>
       <c r="D23">
-        <v>0.1347159427158786</v>
+        <v>0.1403071351379452</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.65849336384974</v>
+        <v>12.57197964466832</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000668545375250677</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.478807565116156</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.437595709535316</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.117468035913873</v>
+        <v>6.043771976785877</v>
       </c>
       <c r="C24">
-        <v>1.76135933913514</v>
+        <v>1.72995263271747</v>
       </c>
       <c r="D24">
-        <v>0.1056393144027972</v>
+        <v>0.111175901713942</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10.31078905542225</v>
+        <v>10.25728346851935</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006975340711590293</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.492097609214611</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.465016392113213</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.774061112169193</v>
+        <v>4.718767283224508</v>
       </c>
       <c r="C25">
-        <v>1.367788333716192</v>
+        <v>1.342974652839871</v>
       </c>
       <c r="D25">
-        <v>0.08272812607478386</v>
+        <v>0.08803786162956584</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.115980341275417</v>
+        <v>8.08926726777716</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007267187492154679</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.630920903223554</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.613127697264119</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.829158138886328</v>
+        <v>3.474820967272763</v>
       </c>
       <c r="C2">
-        <v>1.0858240613845</v>
+        <v>0.4772090733247296</v>
       </c>
       <c r="D2">
-        <v>0.07447806886206898</v>
+        <v>0.356746167600221</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.656321541969874</v>
+        <v>6.585274066192284</v>
       </c>
       <c r="G2">
-        <v>0.0007475424882247884</v>
+        <v>0.0007877899230164248</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.074161434708586</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4065940303726876</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.260300685118921</v>
+        <v>2.989192525227054</v>
       </c>
       <c r="C3">
-        <v>0.9222668402166505</v>
+        <v>0.4112581842674388</v>
       </c>
       <c r="D3">
-        <v>0.06649039752817565</v>
+        <v>0.3195307426169762</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.750528338594222</v>
+        <v>5.79317767184645</v>
       </c>
       <c r="G3">
-        <v>0.0007615778117435745</v>
+        <v>0.0008001603772447134</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.741503573934054</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3558985542586299</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.923195882127516</v>
+        <v>2.700207819029288</v>
       </c>
       <c r="C4">
-        <v>0.825595848774185</v>
+        <v>0.371833402570104</v>
       </c>
       <c r="D4">
-        <v>0.06197468122331884</v>
+        <v>0.2973555629085922</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.21798245405077</v>
+        <v>5.320944786204848</v>
       </c>
       <c r="G4">
-        <v>0.0007702358458681642</v>
+        <v>0.0008078880335813829</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.548423536495662</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3257268137282523</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.788328443372961</v>
+        <v>2.584426284484948</v>
       </c>
       <c r="C5">
-        <v>0.7869625833667158</v>
+        <v>0.3559852298518535</v>
       </c>
       <c r="D5">
-        <v>0.06020915829663842</v>
+        <v>0.2884614799018834</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.005864546311557</v>
+        <v>5.131523495541671</v>
       </c>
       <c r="G5">
-        <v>0.0007737835751728804</v>
+        <v>0.0008110747219123798</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.471983898189521</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3136397096644714</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.766070644799811</v>
+        <v>2.565311674637087</v>
       </c>
       <c r="C6">
-        <v>0.7805887784306265</v>
+        <v>0.3533654326388955</v>
       </c>
       <c r="D6">
-        <v>0.05991992471988006</v>
+        <v>0.286992491047684</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.97091131176154</v>
+        <v>5.100238075996259</v>
       </c>
       <c r="G6">
-        <v>0.0007743740949599293</v>
+        <v>0.0008116062587338399</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.459412127554728</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3116443554622634</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.921367534386945</v>
+        <v>2.69863873012838</v>
       </c>
       <c r="C7">
-        <v>0.8250719641758906</v>
+        <v>0.3716188497494102</v>
       </c>
       <c r="D7">
-        <v>0.0619505952348689</v>
+        <v>0.2972350710805642</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.2151031684636</v>
+        <v>5.318378625847998</v>
       </c>
       <c r="G7">
-        <v>0.0007702836016429724</v>
+        <v>0.0008079308526051683</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.54738423324504</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3255629999190575</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.630121548828299</v>
+        <v>3.30525654883337</v>
       </c>
       <c r="C8">
-        <v>1.028529052474397</v>
+        <v>0.4542142797664326</v>
       </c>
       <c r="D8">
-        <v>0.07162754894001466</v>
+        <v>0.3437566429563645</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.338416742677623</v>
+        <v>6.308887960165691</v>
       </c>
       <c r="G8">
-        <v>0.0007523797170038899</v>
+        <v>0.0007920306297986684</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.95676016338723</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3888953392973491</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.148488928754773</v>
+        <v>4.585203076165953</v>
       </c>
       <c r="C9">
-        <v>1.467906340380296</v>
+        <v>0.6274014209375594</v>
       </c>
       <c r="D9">
-        <v>0.0951213260498136</v>
+        <v>0.4417784920080123</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.788120035259851</v>
+        <v>8.391273457598089</v>
       </c>
       <c r="G9">
-        <v>0.0007170476588820173</v>
+        <v>0.0007616693185724773</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.882483721519364</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5223574104151538</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.403151864781307</v>
+        <v>5.609993022637127</v>
       </c>
       <c r="C10">
-        <v>1.835888704397576</v>
+        <v>0.766140754568454</v>
       </c>
       <c r="D10">
-        <v>0.1181734266928025</v>
+        <v>0.5203374935932743</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.85188985792814</v>
+        <v>10.05331801428341</v>
       </c>
       <c r="G10">
-        <v>0.0006899044815892754</v>
+        <v>0.000739479023223198</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.707857880649925</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6288718295921569</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.025538332443148</v>
+        <v>6.102956899863216</v>
       </c>
       <c r="C11">
-        <v>2.02048639130652</v>
+        <v>0.8331186935061226</v>
       </c>
       <c r="D11">
-        <v>0.1311473718971108</v>
+        <v>0.5581828776115287</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.88811573076845</v>
+        <v>10.85145318514378</v>
       </c>
       <c r="G11">
-        <v>0.0006769206340967933</v>
+        <v>0.0007293001780184807</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.142247037578059</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6799626139835482</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.271489612090136</v>
+        <v>6.294382040670143</v>
       </c>
       <c r="C12">
-        <v>2.093861199684966</v>
+        <v>0.8591855482684991</v>
       </c>
       <c r="D12">
-        <v>0.1366017697551634</v>
+        <v>0.5728902251138379</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>12.29985610514143</v>
+        <v>11.1611522264318</v>
       </c>
       <c r="G12">
-        <v>0.0006718609166678237</v>
+        <v>0.0007254219973262003</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.319186585601614</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6997728661355893</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.218002510579083</v>
+        <v>6.252927371987084</v>
       </c>
       <c r="C13">
-        <v>2.077882778589924</v>
+        <v>0.8535375356846941</v>
       </c>
       <c r="D13">
-        <v>0.135398815865365</v>
+        <v>0.5697046659596765</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>12.21020631700236</v>
+        <v>11.09409513175666</v>
       </c>
       <c r="G13">
-        <v>0.0006729580911901497</v>
+        <v>0.0007262584976404085</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.280437080674162</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.695484229082723</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.045545915016021</v>
+        <v>6.118604465650094</v>
       </c>
       <c r="C14">
-        <v>2.026445888857154</v>
+        <v>0.8352481479404048</v>
       </c>
       <c r="D14">
-        <v>0.1315838026279543</v>
+        <v>0.5593848450888288</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.92156226315444</v>
+        <v>10.87677351468199</v>
       </c>
       <c r="G14">
-        <v>0.0006765076243236394</v>
+        <v>0.0007289816677674657</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.156523494612046</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6815825825115809</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.941355653784115</v>
+        <v>6.036976640325065</v>
       </c>
       <c r="C15">
-        <v>1.995429411165162</v>
+        <v>0.8241420243312518</v>
       </c>
       <c r="D15">
-        <v>0.1293248263894142</v>
+        <v>0.5531150830559</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.74748050463364</v>
+        <v>10.74467694275114</v>
       </c>
       <c r="G15">
-        <v>0.0006786612207371765</v>
+        <v>0.0007306462184145855</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.082399973104629</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6731305652579209</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.36373120155406</v>
+        <v>5.578387972070232</v>
       </c>
       <c r="C16">
-        <v>1.824246009030389</v>
+        <v>0.7618532279721535</v>
       </c>
       <c r="D16">
-        <v>0.1173890469660819</v>
+        <v>0.5179125119029209</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.78653298668507</v>
+        <v>10.00211838505095</v>
       </c>
       <c r="G16">
-        <v>0.0006907363388762455</v>
+        <v>0.0007401416070543483</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.680948062703422</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6255927737147857</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.024258353059849</v>
+        <v>5.304497720327447</v>
       </c>
       <c r="C17">
-        <v>1.724213424333925</v>
+        <v>0.7247257531418825</v>
       </c>
       <c r="D17">
-        <v>0.1108055728139128</v>
+        <v>0.4969039818154783</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.22507632175748</v>
+        <v>9.558269486206996</v>
       </c>
       <c r="G17">
-        <v>0.0006979513950179346</v>
+        <v>0.0007459376588400967</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.451986618691464</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.597159672833854</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.833640239385318</v>
+        <v>5.149420122150673</v>
       </c>
       <c r="C18">
-        <v>1.668217745156483</v>
+        <v>0.7037241560851726</v>
       </c>
       <c r="D18">
-        <v>0.1072381131276288</v>
+        <v>0.4850137145447206</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.910891655404754</v>
+        <v>9.306838180819256</v>
       </c>
       <c r="G18">
-        <v>0.0007020454811673728</v>
+        <v>0.0007492642722280353</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.325519850478003</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5810479462238192</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.769829229836091</v>
+        <v>5.097311214647959</v>
       </c>
       <c r="C19">
-        <v>1.649499651595988</v>
+        <v>0.6966700653262592</v>
       </c>
       <c r="D19">
-        <v>0.1060637949082945</v>
+        <v>0.481019100030494</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.805890478819464</v>
+        <v>9.222332364224002</v>
       </c>
       <c r="G19">
-        <v>0.000703423286342356</v>
+        <v>0.0007503896951686874</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.283508238310546</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5756321165752212</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.05989916486044</v>
+        <v>5.333393647216951</v>
       </c>
       <c r="C20">
-        <v>1.734696829758093</v>
+        <v>0.7286405243758622</v>
       </c>
       <c r="D20">
-        <v>0.1114826930529205</v>
+        <v>0.4991198936030798</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.28390746753033</v>
+        <v>9.605109307372715</v>
       </c>
       <c r="G20">
-        <v>0.0006971894157815701</v>
+        <v>0.0007453214720027741</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.475796806309276</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.6001608010601274</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.095892428718912</v>
+        <v>6.157921236507434</v>
       </c>
       <c r="C21">
-        <v>2.041449469815063</v>
+        <v>0.8405997248704011</v>
       </c>
       <c r="D21">
-        <v>0.1326876450969934</v>
+        <v>0.5624051551995706</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>12.00576346971957</v>
+        <v>10.94039075555042</v>
       </c>
       <c r="G21">
-        <v>0.0006754694647443406</v>
+        <v>0.0007281825540831027</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.192538943178022</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6856524971124998</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.835347369958299</v>
+        <v>6.725066392572842</v>
       </c>
       <c r="C22">
-        <v>2.263071557750209</v>
+        <v>0.9179707199073448</v>
       </c>
       <c r="D22">
-        <v>0.1498889847423932</v>
+        <v>0.6060048723041689</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>13.24862094003356</v>
+        <v>11.85747742487058</v>
       </c>
       <c r="G22">
-        <v>0.0006603932179788825</v>
+        <v>0.0007168358935852842</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.737437805096747</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7442801560026595</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.433624598743677</v>
+        <v>6.41942929003676</v>
       </c>
       <c r="C23">
-        <v>2.14237156494363</v>
+        <v>0.8762331973751429</v>
       </c>
       <c r="D23">
-        <v>0.1403071351379452</v>
+        <v>0.5825013230464435</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.57197964466832</v>
+        <v>11.36339283105747</v>
       </c>
       <c r="G23">
-        <v>0.000668545375250677</v>
+        <v>0.0007229096587986585</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.437595709535316</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.7127045706989463</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.043771976785877</v>
+        <v>5.320322433257331</v>
       </c>
       <c r="C24">
-        <v>1.72995263271747</v>
+        <v>0.7268695971055479</v>
       </c>
       <c r="D24">
-        <v>0.111175901713942</v>
+        <v>0.4981175001571785</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10.25728346851935</v>
+        <v>9.583921466977756</v>
       </c>
       <c r="G24">
-        <v>0.0006975340711590293</v>
+        <v>0.0007456000666660761</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.465016392113213</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5988032656074438</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.718767283224508</v>
+        <v>4.226559138824314</v>
       </c>
       <c r="C25">
-        <v>1.342974652839871</v>
+        <v>0.5789214513280854</v>
       </c>
       <c r="D25">
-        <v>0.08803786162956584</v>
+        <v>0.4143112290463904</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.08926726777716</v>
+        <v>7.808607870359651</v>
       </c>
       <c r="G25">
-        <v>0.0007267187492154679</v>
+        <v>0.0007698307400926715</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.613127697264119</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4849991345016917</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.474820967272763</v>
+        <v>1.056125658881712</v>
       </c>
       <c r="C2">
-        <v>0.4772090733247296</v>
+        <v>0.2315239952797583</v>
       </c>
       <c r="D2">
-        <v>0.356746167600221</v>
+        <v>0.05386258052183024</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.585274066192284</v>
+        <v>0.7763723655777426</v>
       </c>
       <c r="G2">
-        <v>0.0007877899230164248</v>
+        <v>0.0008125165119770879</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.423961967921322</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.247279823740257</v>
       </c>
       <c r="L2">
-        <v>0.4065940303726876</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8505824836188935</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.989192525227054</v>
+        <v>0.9158369618569111</v>
       </c>
       <c r="C3">
-        <v>0.4112581842674388</v>
+        <v>0.2003235659261691</v>
       </c>
       <c r="D3">
-        <v>0.3195307426169762</v>
+        <v>0.05154023819062559</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.79317767184645</v>
+        <v>0.7361808002874639</v>
       </c>
       <c r="G3">
-        <v>0.0008001603772447134</v>
+        <v>0.000817405515949758</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4209934696962954</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.081056135059043</v>
       </c>
       <c r="L3">
-        <v>0.3558985542586299</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.8997180690031374</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.700207819029288</v>
+        <v>0.830280819041576</v>
       </c>
       <c r="C4">
-        <v>0.371833402570104</v>
+        <v>0.1813779853881243</v>
       </c>
       <c r="D4">
-        <v>0.2973555629085922</v>
+        <v>0.05010914323073479</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.320944786204848</v>
+        <v>0.7131754044643017</v>
       </c>
       <c r="G4">
-        <v>0.0008078880335813829</v>
+        <v>0.0008205018398288466</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4201426587126349</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9797829358205661</v>
       </c>
       <c r="L4">
-        <v>0.3257268137282523</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.9312579417017659</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.584426284484948</v>
+        <v>0.7955407901555418</v>
       </c>
       <c r="C5">
-        <v>0.3559852298518535</v>
+        <v>0.1737036157790897</v>
       </c>
       <c r="D5">
-        <v>0.2884614799018834</v>
+        <v>0.04952458114335556</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.131523495541671</v>
+        <v>0.7041956778888121</v>
       </c>
       <c r="G5">
-        <v>0.0008110747219123798</v>
+        <v>0.0008217878993072347</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4200282561040076</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9386834350393656</v>
       </c>
       <c r="L5">
-        <v>0.3136397096644714</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.9444453059803237</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.565311674637087</v>
+        <v>0.7897791683576827</v>
       </c>
       <c r="C6">
-        <v>0.3533654326388955</v>
+        <v>0.1724318779564129</v>
       </c>
       <c r="D6">
-        <v>0.286992491047684</v>
+        <v>0.04942742962332147</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.100238075996259</v>
+        <v>0.7027277526052629</v>
       </c>
       <c r="G6">
-        <v>0.0008116062587338399</v>
+        <v>0.0008220029301841263</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4200229502735056</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9318683781778248</v>
       </c>
       <c r="L6">
-        <v>0.3116443554622634</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.9466549859545044</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.69863873012838</v>
+        <v>0.8298118250427819</v>
       </c>
       <c r="C7">
-        <v>0.3716188497494102</v>
+        <v>0.1812743085377519</v>
       </c>
       <c r="D7">
-        <v>0.2972350710805642</v>
+        <v>0.0501012653045052</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.318378625847998</v>
+        <v>0.7130527332541021</v>
       </c>
       <c r="G7">
-        <v>0.0008079308526051683</v>
+        <v>0.0008205190850056861</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4201401906905176</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9792280007124248</v>
       </c>
       <c r="L7">
-        <v>0.3255629999190575</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.9314344490692914</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.30525654883337</v>
+        <v>1.007620023657267</v>
       </c>
       <c r="C8">
-        <v>0.4542142797664326</v>
+        <v>0.2207177472927953</v>
       </c>
       <c r="D8">
-        <v>0.3437566429563645</v>
+        <v>0.05306285719507997</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.308887960165691</v>
+        <v>0.762151477136257</v>
       </c>
       <c r="G8">
-        <v>0.0007920306297986684</v>
+        <v>0.0008141829646511956</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4227292412076231</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.189784626812155</v>
       </c>
       <c r="L8">
-        <v>0.3888953392973491</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.8672338167220346</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.585203076165953</v>
+        <v>1.361967798245416</v>
       </c>
       <c r="C9">
-        <v>0.6274014209375594</v>
+        <v>0.300092056937558</v>
       </c>
       <c r="D9">
-        <v>0.4417784920080123</v>
+        <v>0.058834000609707</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.391273457598089</v>
+        <v>0.8729277583205004</v>
       </c>
       <c r="G9">
-        <v>0.0007616693185724773</v>
+        <v>0.0008024817485408614</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.436098193872418</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.610323484738927</v>
       </c>
       <c r="L9">
-        <v>0.5223574104151538</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7526868859855789</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.609993022637127</v>
+        <v>1.627353397959666</v>
       </c>
       <c r="C10">
-        <v>0.766140754568454</v>
+        <v>0.3601683639159603</v>
       </c>
       <c r="D10">
-        <v>0.5203374935932743</v>
+        <v>0.06305935063445389</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.05331801428341</v>
+        <v>0.9649817306319193</v>
       </c>
       <c r="G10">
-        <v>0.000739479023223198</v>
+        <v>0.0007942880374148459</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4518412321876113</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.926037378901839</v>
       </c>
       <c r="L10">
-        <v>0.6288718295921569</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6761542762602772</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.102956899863216</v>
+        <v>1.749566449359435</v>
       </c>
       <c r="C11">
-        <v>0.8331186935061226</v>
+        <v>0.3880090492068007</v>
       </c>
       <c r="D11">
-        <v>0.5581828776115287</v>
+        <v>0.06498036311060673</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.85145318514378</v>
+        <v>1.009618678190975</v>
       </c>
       <c r="G11">
-        <v>0.0007293001780184807</v>
+        <v>0.000790638931004314</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4604983010599639</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.071635829793735</v>
       </c>
       <c r="L11">
-        <v>0.6799626139835482</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.6431643635248001</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.294382040670143</v>
+        <v>1.796094017269411</v>
       </c>
       <c r="C12">
-        <v>0.8591855482684991</v>
+        <v>0.3986368342473838</v>
       </c>
       <c r="D12">
-        <v>0.5728902251138379</v>
+        <v>0.06570781991523944</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.1611522264318</v>
+        <v>1.026958834023475</v>
       </c>
       <c r="G12">
-        <v>0.0007254219973262003</v>
+        <v>0.0007892675505881628</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4640106557200596</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.127100451945608</v>
       </c>
       <c r="L12">
-        <v>0.6997728661355893</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.6309502282986088</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.252927371987084</v>
+        <v>1.786061861266347</v>
       </c>
       <c r="C13">
-        <v>0.8535375356846941</v>
+        <v>0.3963439697639046</v>
       </c>
       <c r="D13">
-        <v>0.5697046659596765</v>
+        <v>0.06555114560832465</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.09409513175666</v>
+        <v>1.023204206399782</v>
       </c>
       <c r="G13">
-        <v>0.0007262584976404085</v>
+        <v>0.0007895624501667221</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.463243474470481</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.115139731457532</v>
       </c>
       <c r="L13">
-        <v>0.695484229082723</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.6335681088372098</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.118604465650094</v>
+        <v>1.753389121070057</v>
       </c>
       <c r="C14">
-        <v>0.8352481479404048</v>
+        <v>0.3888816276736691</v>
       </c>
       <c r="D14">
-        <v>0.5593848450888288</v>
+        <v>0.06504021013364536</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.87677351468199</v>
+        <v>1.011036261365263</v>
       </c>
       <c r="G14">
-        <v>0.0007289816677674657</v>
+        <v>0.0007905259019454515</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4607824577780093</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.076192058577931</v>
       </c>
       <c r="L14">
-        <v>0.6815825825115809</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.6421538228355601</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.036976640325065</v>
+        <v>1.733409503570925</v>
       </c>
       <c r="C15">
-        <v>0.8241420243312518</v>
+        <v>0.3843221733673658</v>
       </c>
       <c r="D15">
-        <v>0.5531150830559</v>
+        <v>0.06472725432703186</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.74467694275114</v>
+        <v>1.003641215024857</v>
       </c>
       <c r="G15">
-        <v>0.0007306462184145855</v>
+        <v>0.0007911173811110914</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4593060950618835</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.052379820087424</v>
       </c>
       <c r="L15">
-        <v>0.6731305652579209</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6474495772696471</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.578387972070232</v>
+        <v>1.619399283791978</v>
       </c>
       <c r="C16">
-        <v>0.7618532279721535</v>
+        <v>0.3583601693367484</v>
       </c>
       <c r="D16">
-        <v>0.5179125119029209</v>
+        <v>0.06293379963548773</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.00211838505095</v>
+        <v>0.9621235118055012</v>
       </c>
       <c r="G16">
-        <v>0.0007401416070543483</v>
+        <v>0.0007945280231148794</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4513071590358351</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.916565762694233</v>
       </c>
       <c r="L16">
-        <v>0.6255927737147857</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.6783483067536693</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.304497720327447</v>
+        <v>1.549862205596185</v>
       </c>
       <c r="C17">
-        <v>0.7247257531418825</v>
+        <v>0.3425722674330984</v>
       </c>
       <c r="D17">
-        <v>0.4969039818154783</v>
+        <v>0.06183340211808996</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.558269486206996</v>
+        <v>0.9373884149414238</v>
       </c>
       <c r="G17">
-        <v>0.0007459376588400967</v>
+        <v>0.000796639837052493</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.446796173432439</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.833785920681976</v>
       </c>
       <c r="L17">
-        <v>0.597159672833854</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.697782095270604</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.149420122150673</v>
+        <v>1.510004145896232</v>
       </c>
       <c r="C18">
-        <v>0.7037241560851726</v>
+        <v>0.33353889531611</v>
       </c>
       <c r="D18">
-        <v>0.4850137145447206</v>
+        <v>0.06120036555510211</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.306838180819256</v>
+        <v>0.9234187449457352</v>
       </c>
       <c r="G18">
-        <v>0.0007492642722280353</v>
+        <v>0.0007978619133259926</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.444341104771901</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.786356460504976</v>
       </c>
       <c r="L18">
-        <v>0.5810479462238192</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.7091306566531337</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.097311214647959</v>
+        <v>1.496531568430555</v>
       </c>
       <c r="C19">
-        <v>0.6966700653262592</v>
+        <v>0.3304881584816712</v>
       </c>
       <c r="D19">
-        <v>0.481019100030494</v>
+        <v>0.06098600525550069</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.222332364224002</v>
+        <v>0.9187318795074049</v>
       </c>
       <c r="G19">
-        <v>0.0007503896951686874</v>
+        <v>0.0007982769844869389</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4435332698394916</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.770327831908389</v>
       </c>
       <c r="L19">
-        <v>0.5756321165752212</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.7130019474730815</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.333393647216951</v>
+        <v>1.557250042997509</v>
       </c>
       <c r="C20">
-        <v>0.7286405243758622</v>
+        <v>0.3442479292678513</v>
       </c>
       <c r="D20">
-        <v>0.4991198936030798</v>
+        <v>0.06195055224402068</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.605109307372715</v>
+        <v>0.9399945986018992</v>
       </c>
       <c r="G20">
-        <v>0.0007453214720027741</v>
+        <v>0.0007964142688325715</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.447261801547306</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.842578689055898</v>
       </c>
       <c r="L20">
-        <v>0.6001608010601274</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6956955507829647</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.157921236507434</v>
+        <v>1.76297887547193</v>
       </c>
       <c r="C21">
-        <v>0.8405997248704011</v>
+        <v>0.3910710910739965</v>
       </c>
       <c r="D21">
-        <v>0.5624051551995706</v>
+        <v>0.0651902824867534</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.94039075555042</v>
+        <v>1.014598082625412</v>
       </c>
       <c r="G21">
-        <v>0.0007281825540831027</v>
+        <v>0.0007902426356461783</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4614988044740116</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.087622608573668</v>
       </c>
       <c r="L21">
-        <v>0.6856524971124998</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6396243000270161</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.725066392572842</v>
+        <v>1.898898916769213</v>
       </c>
       <c r="C22">
-        <v>0.9179707199073448</v>
+        <v>0.4221750163347906</v>
       </c>
       <c r="D22">
-        <v>0.6060048723041689</v>
+        <v>0.0673077939760276</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.85747742487058</v>
+        <v>1.065924678406205</v>
       </c>
       <c r="G22">
-        <v>0.0007168358935852842</v>
+        <v>0.0007862696522844434</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4721781119546122</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.249718246250382</v>
       </c>
       <c r="L22">
-        <v>0.7442801560026595</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6046098009816667</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.41942929003676</v>
+        <v>1.826209770819077</v>
       </c>
       <c r="C23">
-        <v>0.8762331973751429</v>
+        <v>0.4055242155272083</v>
       </c>
       <c r="D23">
-        <v>0.5825013230464435</v>
+        <v>0.06617756087337767</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.36339283105747</v>
+        <v>1.038281519438513</v>
       </c>
       <c r="G23">
-        <v>0.0007229096587986585</v>
+        <v>0.0007883848488137924</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.466345864425314</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.163010812088572</v>
       </c>
       <c r="L23">
-        <v>0.7127045706989463</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6231427969206571</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.320322433257331</v>
+        <v>1.553909631316884</v>
       </c>
       <c r="C24">
-        <v>0.7268695971055479</v>
+        <v>0.3434902285333408</v>
       </c>
       <c r="D24">
-        <v>0.4981175001571785</v>
+        <v>0.06189758994132433</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.583921466977756</v>
+        <v>0.9388155645639102</v>
       </c>
       <c r="G24">
-        <v>0.0007456000666660761</v>
+        <v>0.0007965162233437695</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4470508615472966</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.838602977949137</v>
       </c>
       <c r="L24">
-        <v>0.5988032656074438</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6966383311054969</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.226559138824314</v>
+        <v>1.265343604069898</v>
       </c>
       <c r="C25">
-        <v>0.5789214513280854</v>
+        <v>0.278350653238391</v>
       </c>
       <c r="D25">
-        <v>0.4143112290463904</v>
+        <v>0.05727594068046926</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.808607870359651</v>
+        <v>0.8412274011176351</v>
       </c>
       <c r="G25">
-        <v>0.0007698307400926715</v>
+        <v>0.0008055735246930757</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4315083462253426</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.495532988782884</v>
       </c>
       <c r="L25">
-        <v>0.4849991345016917</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.7823902110465379</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.056125658881712</v>
+        <v>0.4487503271861613</v>
       </c>
       <c r="C2">
-        <v>0.2315239952797583</v>
+        <v>0.08999107383239391</v>
       </c>
       <c r="D2">
-        <v>0.05386258052183024</v>
+        <v>0.04770524831767631</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7763723655777426</v>
+        <v>1.11004860662316</v>
       </c>
       <c r="G2">
-        <v>0.0008125165119770879</v>
+        <v>0.002471323633778969</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.423961967921322</v>
+        <v>0.7769113166066148</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.247279823740257</v>
+        <v>0.517949952431934</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8505824836188935</v>
+        <v>1.689458135213776</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9158369618569111</v>
+        <v>0.4097608860521973</v>
       </c>
       <c r="C3">
-        <v>0.2003235659261691</v>
+        <v>0.08145825179261124</v>
       </c>
       <c r="D3">
-        <v>0.05154023819062559</v>
+        <v>0.04674374881948395</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7361808002874639</v>
+        <v>1.107724365235526</v>
       </c>
       <c r="G3">
-        <v>0.000817405515949758</v>
+        <v>0.002474448741029027</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4209934696962954</v>
+        <v>0.7815845219114372</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.081056135059043</v>
+        <v>0.4719564677101005</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8997180690031374</v>
+        <v>1.709139021880439</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.830280819041576</v>
+        <v>0.3859817992284604</v>
       </c>
       <c r="C4">
-        <v>0.1813779853881243</v>
+        <v>0.07625646039123524</v>
       </c>
       <c r="D4">
-        <v>0.05010914323073479</v>
+        <v>0.04614765729770909</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7131754044643017</v>
+        <v>1.106997281224707</v>
       </c>
       <c r="G4">
-        <v>0.0008205018398288466</v>
+        <v>0.002476469716336441</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4201426587126349</v>
+        <v>0.7848870513603075</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9797829358205661</v>
+        <v>0.4439091284640142</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9312579417017659</v>
+        <v>1.721845837272049</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7955407901555418</v>
+        <v>0.3763322768375872</v>
       </c>
       <c r="C5">
-        <v>0.1737036157790897</v>
+        <v>0.07414605427430843</v>
       </c>
       <c r="D5">
-        <v>0.04952458114335556</v>
+        <v>0.04590332244168138</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7041956778888121</v>
+        <v>1.106876814289443</v>
       </c>
       <c r="G5">
-        <v>0.0008217878993072347</v>
+        <v>0.002477319043971884</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4200282561040076</v>
+        <v>0.7863416716365172</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9386834350393656</v>
+        <v>0.4325282993694088</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9444453059803237</v>
+        <v>1.727180438054971</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7897791683576827</v>
+        <v>0.3747324440066109</v>
       </c>
       <c r="C6">
-        <v>0.1724318779564129</v>
+        <v>0.07379618756166906</v>
       </c>
       <c r="D6">
-        <v>0.04942742962332147</v>
+        <v>0.04586266540986372</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7027277526052629</v>
+        <v>1.106867424545513</v>
       </c>
       <c r="G6">
-        <v>0.0008220029301841263</v>
+        <v>0.002477461632383036</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4200229502735056</v>
+        <v>0.7865897790572767</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9318683781778248</v>
+        <v>0.4306414679606121</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9466549859545044</v>
+        <v>1.728075691834567</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8298118250427819</v>
+        <v>0.3858514974547234</v>
       </c>
       <c r="C7">
-        <v>0.1812743085377519</v>
+        <v>0.07622796084149286</v>
       </c>
       <c r="D7">
-        <v>0.0501012653045052</v>
+        <v>0.04614436784993714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7130527332541021</v>
+        <v>1.106994944917759</v>
       </c>
       <c r="G7">
-        <v>0.0008205190850056861</v>
+        <v>0.002476481066480676</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4201401906905176</v>
+        <v>0.784906228446637</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9792280007124248</v>
+        <v>0.4437554452190113</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9314344490692914</v>
+        <v>1.721917148164312</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.007620023657267</v>
+        <v>0.4352735853628644</v>
       </c>
       <c r="C8">
-        <v>0.2207177472927953</v>
+        <v>0.08704117001462919</v>
       </c>
       <c r="D8">
-        <v>0.05306285719507997</v>
+        <v>0.0473749220176245</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.762151477136257</v>
+        <v>1.109101798158598</v>
       </c>
       <c r="G8">
-        <v>0.0008141829646511956</v>
+        <v>0.002472380017462133</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4227292412076231</v>
+        <v>0.7784326681229388</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.189784626812155</v>
+        <v>0.5020514762730386</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8672338167220346</v>
+        <v>1.69611480788709</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.361967798245416</v>
+        <v>0.5334578386647024</v>
       </c>
       <c r="C9">
-        <v>0.300092056937558</v>
+        <v>0.1085453898292599</v>
       </c>
       <c r="D9">
-        <v>0.058834000609707</v>
+        <v>0.04974194115971642</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8729277583205004</v>
+        <v>1.118798407244824</v>
       </c>
       <c r="G9">
-        <v>0.0008024817485408614</v>
+        <v>0.002465144794040314</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.436098193872418</v>
+        <v>0.7691803678266567</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.610323484738927</v>
+        <v>0.6178975618521463</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7526868859855789</v>
+        <v>1.650461044991346</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.627353397959666</v>
+        <v>0.6063656493258236</v>
       </c>
       <c r="C10">
-        <v>0.3601683639159603</v>
+        <v>0.1245327205656679</v>
       </c>
       <c r="D10">
-        <v>0.06305935063445389</v>
+        <v>0.05145217378022693</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9649817306319193</v>
+        <v>1.129332850905811</v>
       </c>
       <c r="G10">
-        <v>0.0007942880374148459</v>
+        <v>0.002460315991601186</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4518412321876113</v>
+        <v>0.7644893292067181</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.926037378901839</v>
+        <v>0.7039470296913066</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6761542762602772</v>
+        <v>1.619937806600921</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.749566449359435</v>
+        <v>0.6397011856194013</v>
       </c>
       <c r="C11">
-        <v>0.3880090492068007</v>
+        <v>0.1318479307237226</v>
       </c>
       <c r="D11">
-        <v>0.06498036311060673</v>
+        <v>0.0522238059102591</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.009618678190975</v>
+        <v>1.13486977353935</v>
       </c>
       <c r="G11">
-        <v>0.000790638931004314</v>
+        <v>0.002458223908193135</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4604983010599639</v>
+        <v>0.7628144921491469</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.071635829793735</v>
+        <v>0.7432985594692809</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6431643635248001</v>
+        <v>1.606708376500631</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.796094017269411</v>
+        <v>0.6523486933859317</v>
       </c>
       <c r="C12">
-        <v>0.3986368342473838</v>
+        <v>0.1346241891272086</v>
       </c>
       <c r="D12">
-        <v>0.06570781991523944</v>
+        <v>0.05251507316720705</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.026958834023475</v>
+        <v>1.137073830854462</v>
       </c>
       <c r="G12">
-        <v>0.0007892675505881628</v>
+        <v>0.00245744664621349</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4640106557200596</v>
+        <v>0.7622464394875337</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.127100451945608</v>
+        <v>0.7582296988695703</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6309502282986088</v>
+        <v>1.601793154531268</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.786061861266347</v>
+        <v>0.6496237607783257</v>
       </c>
       <c r="C13">
-        <v>0.3963439697639046</v>
+        <v>0.1340259982284238</v>
       </c>
       <c r="D13">
-        <v>0.06555114560832465</v>
+        <v>0.05245238534139673</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.023204206399782</v>
+        <v>1.136594369486559</v>
       </c>
       <c r="G13">
-        <v>0.0007895624501667221</v>
+        <v>0.002457613378973705</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.463243474470481</v>
+        <v>0.7623658344186524</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.115139731457532</v>
+        <v>0.7550126993321271</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6335681088372098</v>
+        <v>1.602847530758684</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.753389121070057</v>
+        <v>0.6407412231226886</v>
       </c>
       <c r="C14">
-        <v>0.3888816276736691</v>
+        <v>0.1320762117660195</v>
       </c>
       <c r="D14">
-        <v>0.06504021013364536</v>
+        <v>0.05224778744808134</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.011036261365263</v>
+        <v>1.135048949872655</v>
       </c>
       <c r="G14">
-        <v>0.0007905259019454515</v>
+        <v>0.002458159662786646</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4607824577780093</v>
+        <v>0.76276643108325</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.076192058577931</v>
+        <v>0.7445263619725893</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6421538228355601</v>
+        <v>1.606302103741294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.733409503570925</v>
+        <v>0.635303537327303</v>
       </c>
       <c r="C15">
-        <v>0.3843221733673658</v>
+        <v>0.1308827128804353</v>
       </c>
       <c r="D15">
-        <v>0.06472725432703186</v>
+        <v>0.05212234327362353</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.003641215024857</v>
+        <v>1.134116322654336</v>
       </c>
       <c r="G15">
-        <v>0.0007911173811110914</v>
+        <v>0.002458496224272836</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4593060950618835</v>
+        <v>0.7630204300323626</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.052379820087424</v>
+        <v>0.7381070216501939</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6474495772696471</v>
+        <v>1.6084304384453</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.619399283791978</v>
+        <v>0.6041904771422253</v>
       </c>
       <c r="C16">
-        <v>0.3583601693367484</v>
+        <v>0.1240555125755236</v>
       </c>
       <c r="D16">
-        <v>0.06293379963548773</v>
+        <v>0.05140161622889394</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9621235118055012</v>
+        <v>1.12898600769411</v>
       </c>
       <c r="G16">
-        <v>0.0007945280231148794</v>
+        <v>0.002460454812012935</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4513071590358351</v>
+        <v>0.7646080354526461</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.916565762694233</v>
+        <v>0.701379464694952</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6783483067536693</v>
+        <v>1.620815591601596</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.549862205596185</v>
+        <v>0.5851468002809384</v>
       </c>
       <c r="C17">
-        <v>0.3425722674330984</v>
+        <v>0.1198781558372275</v>
       </c>
       <c r="D17">
-        <v>0.06183340211808996</v>
+        <v>0.05095783114983732</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9373884149414238</v>
+        <v>1.126029652401542</v>
       </c>
       <c r="G17">
-        <v>0.000796639837052493</v>
+        <v>0.002461683072361816</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.446796173432439</v>
+        <v>0.7656996817953043</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.833785920681976</v>
+        <v>0.678901205236258</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.697782095270604</v>
+        <v>1.628581561312814</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.510004145896232</v>
+        <v>0.5742093441789109</v>
       </c>
       <c r="C18">
-        <v>0.33353889531611</v>
+        <v>0.1174794481927108</v>
       </c>
       <c r="D18">
-        <v>0.06120036555510211</v>
+        <v>0.05070198004224125</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9234187449457352</v>
+        <v>1.124399319527882</v>
       </c>
       <c r="G18">
-        <v>0.0007978619133259926</v>
+        <v>0.002462399381381971</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.444341104771901</v>
+        <v>0.7663707754186788</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.786356460504976</v>
+        <v>0.6659918205464805</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7091306566531337</v>
+        <v>1.633110052375214</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.496531568430555</v>
+        <v>0.5705088602204285</v>
       </c>
       <c r="C19">
-        <v>0.3304881584816712</v>
+        <v>0.1166679724549908</v>
       </c>
       <c r="D19">
-        <v>0.06098600525550069</v>
+        <v>0.05061525116487786</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9187318795074049</v>
+        <v>1.123859346290402</v>
       </c>
       <c r="G19">
-        <v>0.0007982769844869389</v>
+        <v>0.002462643604812289</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4435332698394916</v>
+        <v>0.7666054126271504</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.770327831908389</v>
+        <v>0.6616242834081163</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7130019474730815</v>
+        <v>1.634653915061572</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.557250042997509</v>
+        <v>0.587172382221695</v>
       </c>
       <c r="C20">
-        <v>0.3442479292678513</v>
+        <v>0.1203224286076932</v>
       </c>
       <c r="D20">
-        <v>0.06195055224402068</v>
+        <v>0.051005134818773</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9399945986018992</v>
+        <v>1.126337106171221</v>
       </c>
       <c r="G20">
-        <v>0.0007964142688325715</v>
+        <v>0.002461551303546807</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.447261801547306</v>
+        <v>0.7655790012900141</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.842578689055898</v>
+        <v>0.681292036170845</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6956955507829647</v>
+        <v>1.627748472450108</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.76297887547193</v>
+        <v>0.6433495890300378</v>
       </c>
       <c r="C21">
-        <v>0.3910710910739965</v>
+        <v>0.1326487441912718</v>
       </c>
       <c r="D21">
-        <v>0.0651902824867534</v>
+        <v>0.05230790827774712</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.014598082625412</v>
+        <v>1.135499961765603</v>
       </c>
       <c r="G21">
-        <v>0.0007902426356461783</v>
+        <v>0.00245799880059605</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4614988044740116</v>
+        <v>0.7626469690656421</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.087622608573668</v>
+        <v>0.7476056527423225</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6396243000270161</v>
+        <v>1.605284846402967</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.898898916769213</v>
+        <v>0.6802047652643921</v>
       </c>
       <c r="C22">
-        <v>0.4221750163347906</v>
+        <v>0.1407405509914383</v>
       </c>
       <c r="D22">
-        <v>0.0673077939760276</v>
+        <v>0.05315389892761857</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.065924678406205</v>
+        <v>1.14211422242488</v>
       </c>
       <c r="G22">
-        <v>0.0007862696522844434</v>
+        <v>0.002455764226525133</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4721781119546122</v>
+        <v>0.7611164855318009</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.249718246250382</v>
+        <v>0.791117682029352</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6046098009816667</v>
+        <v>1.5911543335977</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.826209770819077</v>
+        <v>0.6605217406475958</v>
       </c>
       <c r="C23">
-        <v>0.4055242155272083</v>
+        <v>0.1364185092644448</v>
       </c>
       <c r="D23">
-        <v>0.06617756087337767</v>
+        <v>0.05270288222202169</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.038281519438513</v>
+        <v>1.13852672290254</v>
       </c>
       <c r="G23">
-        <v>0.0007883848488137924</v>
+        <v>0.002456948906098228</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.466345864425314</v>
+        <v>0.7618979864084849</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.163010812088572</v>
+        <v>0.7678788067029245</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6231427969206571</v>
+        <v>1.598645598483998</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.553909631316884</v>
+        <v>0.5862565823181285</v>
       </c>
       <c r="C24">
-        <v>0.3434902285333408</v>
+        <v>0.1201215638266717</v>
       </c>
       <c r="D24">
-        <v>0.06189758994132433</v>
+        <v>0.05098375105046671</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9388155645639102</v>
+        <v>1.126197890424905</v>
       </c>
       <c r="G24">
-        <v>0.0007965162233437695</v>
+        <v>0.002461610844516566</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4470508615472966</v>
+        <v>0.7656334254802388</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.838602977949137</v>
+        <v>0.6802110989224275</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6966383311054969</v>
+        <v>1.628124913409023</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.265343604069898</v>
+        <v>0.5067607865452715</v>
       </c>
       <c r="C25">
-        <v>0.278350653238391</v>
+        <v>0.1026952851682381</v>
       </c>
       <c r="D25">
-        <v>0.05727594068046926</v>
+        <v>0.04910660916768705</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8412274011176351</v>
+        <v>1.11557760885637</v>
       </c>
       <c r="G25">
-        <v>0.0008055735246930757</v>
+        <v>0.002467016246473719</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4315083462253426</v>
+        <v>0.7713140020346145</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.495532988782884</v>
+        <v>0.5863939546807444</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7823902110465379</v>
+        <v>1.662281823861226</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4487503271861613</v>
+        <v>1.056125658881683</v>
       </c>
       <c r="C2">
-        <v>0.08999107383239391</v>
+        <v>0.2315239952799857</v>
       </c>
       <c r="D2">
-        <v>0.04770524831767631</v>
+        <v>0.05386258052216419</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.11004860662316</v>
+        <v>0.7763723655777426</v>
       </c>
       <c r="G2">
-        <v>0.002471323633778969</v>
+        <v>0.0008125165119460563</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7769113166066148</v>
+        <v>0.4239619679213362</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.517949952431934</v>
+        <v>1.247279823740342</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.689458135213776</v>
+        <v>0.8505824836189273</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4097608860521973</v>
+        <v>0.9158369618567974</v>
       </c>
       <c r="C3">
-        <v>0.08145825179261124</v>
+        <v>0.200323565926297</v>
       </c>
       <c r="D3">
-        <v>0.04674374881948395</v>
+        <v>0.05154023819061138</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.107724365235526</v>
+        <v>0.7361808002874852</v>
       </c>
       <c r="G3">
-        <v>0.002474448741029027</v>
+        <v>0.0008174055159730569</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7815845219114372</v>
+        <v>0.4209934696962847</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4719564677101005</v>
+        <v>1.081056135059043</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.709139021880439</v>
+        <v>0.8997180690031108</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3859817992284604</v>
+        <v>0.8302808190415476</v>
       </c>
       <c r="C4">
-        <v>0.07625646039123524</v>
+        <v>0.1813779853883801</v>
       </c>
       <c r="D4">
-        <v>0.04614765729770909</v>
+        <v>0.05010914323059978</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.106997281224707</v>
+        <v>0.7131754044643088</v>
       </c>
       <c r="G4">
-        <v>0.002476469716336441</v>
+        <v>0.0008205018397977604</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7848870513603075</v>
+        <v>0.4201426587126207</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4439091284640142</v>
+        <v>0.9797829358205377</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.721845837272049</v>
+        <v>0.9312579417016948</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3763322768375872</v>
+        <v>0.7955407901557123</v>
       </c>
       <c r="C5">
-        <v>0.07414605427430843</v>
+        <v>0.1737036157794734</v>
       </c>
       <c r="D5">
-        <v>0.04590332244168138</v>
+        <v>0.0495245811433378</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.106876814289443</v>
+        <v>0.7041956778888192</v>
       </c>
       <c r="G5">
-        <v>0.002477319043971884</v>
+        <v>0.0008217878993592263</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7863416716365172</v>
+        <v>0.4200282561040183</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4325282993694088</v>
+        <v>0.9386834350395361</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.727180438054971</v>
+        <v>0.9444453059803131</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3747324440066109</v>
+        <v>0.7897791683576258</v>
       </c>
       <c r="C6">
-        <v>0.07379618756166906</v>
+        <v>0.1724318779562708</v>
       </c>
       <c r="D6">
-        <v>0.04586266540986372</v>
+        <v>0.04942742962331792</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.106867424545513</v>
+        <v>0.7027277526052558</v>
       </c>
       <c r="G6">
-        <v>0.002477461632383036</v>
+        <v>0.0008220029301286571</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7865897790572767</v>
+        <v>0.4200229502735162</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4306414679606121</v>
+        <v>0.9318683781777679</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.728075691834567</v>
+        <v>0.946654985954547</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3858514974547234</v>
+        <v>0.8298118250426114</v>
       </c>
       <c r="C7">
-        <v>0.07622796084149286</v>
+        <v>0.1812743085377235</v>
       </c>
       <c r="D7">
-        <v>0.04614436784993714</v>
+        <v>0.0501012653044377</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.106994944917759</v>
+        <v>0.713052733254095</v>
       </c>
       <c r="G7">
-        <v>0.002476481066480676</v>
+        <v>0.0008205190850587634</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.784906228446637</v>
+        <v>0.4201401906905176</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4437554452190113</v>
+        <v>0.9792280007124816</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.721917148164312</v>
+        <v>0.9314344490692843</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4352735853628644</v>
+        <v>1.007620023657125</v>
       </c>
       <c r="C8">
-        <v>0.08704117001462919</v>
+        <v>0.220717747292781</v>
       </c>
       <c r="D8">
-        <v>0.0473749220176245</v>
+        <v>0.05306285719507287</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.109101798158598</v>
+        <v>0.7621514771362712</v>
       </c>
       <c r="G8">
-        <v>0.002472380017462133</v>
+        <v>0.0008141829646501165</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7784326681229388</v>
+        <v>0.422729241207616</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5020514762730386</v>
+        <v>1.18978462681207</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.69611480788709</v>
+        <v>0.8672338167220168</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5334578386647024</v>
+        <v>1.361967798245416</v>
       </c>
       <c r="C9">
-        <v>0.1085453898292599</v>
+        <v>0.3000920569374159</v>
       </c>
       <c r="D9">
-        <v>0.04974194115971642</v>
+        <v>0.05883400060981359</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.118798407244824</v>
+        <v>0.8729277583204862</v>
       </c>
       <c r="G9">
-        <v>0.002465144794040314</v>
+        <v>0.0008024817485403343</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7691803678266567</v>
+        <v>0.4360981938724038</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6178975618521463</v>
+        <v>1.610323484738899</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.650461044991346</v>
+        <v>0.7526868859855789</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6063656493258236</v>
+        <v>1.627353397959467</v>
       </c>
       <c r="C10">
-        <v>0.1245327205656679</v>
+        <v>0.3601683639157329</v>
       </c>
       <c r="D10">
-        <v>0.05145217378022693</v>
+        <v>0.06305935063438994</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.129332850905811</v>
+        <v>0.9649817306319193</v>
       </c>
       <c r="G10">
-        <v>0.002460315991601186</v>
+        <v>0.0007942880374139166</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7644893292067181</v>
+        <v>0.4518412321876184</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7039470296913066</v>
+        <v>1.926037378901896</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.619937806600921</v>
+        <v>0.6761542762602595</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6397011856194013</v>
+        <v>1.749566449359691</v>
       </c>
       <c r="C11">
-        <v>0.1318479307237226</v>
+        <v>0.3880090492069712</v>
       </c>
       <c r="D11">
-        <v>0.0522238059102591</v>
+        <v>0.06498036311071331</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.13486977353935</v>
+        <v>1.009618678190989</v>
       </c>
       <c r="G11">
-        <v>0.002458223908193135</v>
+        <v>0.0007906389309975228</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7628144921491469</v>
+        <v>0.4604983010599852</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7432985594692809</v>
+        <v>2.071635829793763</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.606708376500631</v>
+        <v>0.6431643635247717</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6523486933859317</v>
+        <v>1.796094017269496</v>
       </c>
       <c r="C12">
-        <v>0.1346241891272086</v>
+        <v>0.3986368342474123</v>
       </c>
       <c r="D12">
-        <v>0.05251507316720705</v>
+        <v>0.0657078199151897</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.137073830854462</v>
+        <v>1.026958834023475</v>
       </c>
       <c r="G12">
-        <v>0.00245744664621349</v>
+        <v>0.0007892675505888217</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7622464394875337</v>
+        <v>0.4640106557200738</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7582296988695703</v>
+        <v>2.127100451945552</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.601793154531268</v>
+        <v>0.6309502282986621</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6496237607783257</v>
+        <v>1.786061861266546</v>
       </c>
       <c r="C13">
-        <v>0.1340259982284238</v>
+        <v>0.3963439697642741</v>
       </c>
       <c r="D13">
-        <v>0.05245238534139673</v>
+        <v>0.06555114560811859</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.136594369486559</v>
+        <v>1.023204206399754</v>
       </c>
       <c r="G13">
-        <v>0.002457613378973705</v>
+        <v>0.0007895624501366458</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7623658344186524</v>
+        <v>0.463243474470481</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7550126993321271</v>
+        <v>2.115139731457617</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.602847530758684</v>
+        <v>0.6335681088371885</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6407412231226886</v>
+        <v>1.753389121070001</v>
       </c>
       <c r="C14">
-        <v>0.1320762117660195</v>
+        <v>0.3888816276736407</v>
       </c>
       <c r="D14">
-        <v>0.05224778744808134</v>
+        <v>0.06504021013377326</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.135048949872655</v>
+        <v>1.011036261365277</v>
       </c>
       <c r="G14">
-        <v>0.002458159662786646</v>
+        <v>0.0007905259019439114</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.76276643108325</v>
+        <v>0.4607824577780306</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7445263619725893</v>
+        <v>2.076192058577959</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.606302103741294</v>
+        <v>0.6421538228355672</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.635303537327303</v>
+        <v>1.733409503570954</v>
       </c>
       <c r="C15">
-        <v>0.1308827128804353</v>
+        <v>0.3843221733674511</v>
       </c>
       <c r="D15">
-        <v>0.05212234327362353</v>
+        <v>0.06472725432702475</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.134116322654336</v>
+        <v>1.003641215024885</v>
       </c>
       <c r="G15">
-        <v>0.002458496224272836</v>
+        <v>0.0007911173810755012</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7630204300323626</v>
+        <v>0.4593060950618977</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7381070216501939</v>
+        <v>2.052379820087396</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.6084304384453</v>
+        <v>0.6474495772696578</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6041904771422253</v>
+        <v>1.619399283791722</v>
       </c>
       <c r="C16">
-        <v>0.1240555125755236</v>
+        <v>0.3583601693365495</v>
       </c>
       <c r="D16">
-        <v>0.05140161622889394</v>
+        <v>0.06293379963566537</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.12898600769411</v>
+        <v>0.9621235118054869</v>
       </c>
       <c r="G16">
-        <v>0.002460454812012935</v>
+        <v>0.0007945280231132696</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7646080354526461</v>
+        <v>0.451307159035828</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.701379464694952</v>
+        <v>1.916565762694177</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.620815591601596</v>
+        <v>0.6783483067536515</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5851468002809384</v>
+        <v>1.549862205596042</v>
       </c>
       <c r="C17">
-        <v>0.1198781558372275</v>
+        <v>0.3425722674328711</v>
       </c>
       <c r="D17">
-        <v>0.05095783114983732</v>
+        <v>0.0618334021182676</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.126029652401542</v>
+        <v>0.937388414941438</v>
       </c>
       <c r="G17">
-        <v>0.002461683072361816</v>
+        <v>0.0007966398370808118</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7656996817953043</v>
+        <v>0.4467961734324319</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.678901205236258</v>
+        <v>1.833785920682033</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.628581561312814</v>
+        <v>0.697782095270604</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5742093441789109</v>
+        <v>1.510004145896232</v>
       </c>
       <c r="C18">
-        <v>0.1174794481927108</v>
+        <v>0.33353889531611</v>
       </c>
       <c r="D18">
-        <v>0.05070198004224125</v>
+        <v>0.06120036555510211</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.124399319527882</v>
+        <v>0.9234187449457352</v>
       </c>
       <c r="G18">
-        <v>0.002462399381381971</v>
+        <v>0.0007978619133250052</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7663707754186788</v>
+        <v>0.4443411047719081</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6659918205464805</v>
+        <v>1.786356460504976</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.633110052375214</v>
+        <v>0.7091306566531266</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5705088602204285</v>
+        <v>1.496531568430669</v>
       </c>
       <c r="C19">
-        <v>0.1166679724549908</v>
+        <v>0.3304881584816997</v>
       </c>
       <c r="D19">
-        <v>0.05061525116487786</v>
+        <v>0.06098600525549358</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.123859346290402</v>
+        <v>0.9187318795074049</v>
       </c>
       <c r="G19">
-        <v>0.002462643604812289</v>
+        <v>0.0007982769844558729</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7666054126271504</v>
+        <v>0.4435332698394987</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6616242834081163</v>
+        <v>1.770327831908361</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.634653915061572</v>
+        <v>0.7130019474731562</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.587172382221695</v>
+        <v>1.557250042997737</v>
       </c>
       <c r="C20">
-        <v>0.1203224286076932</v>
+        <v>0.3442479292683061</v>
       </c>
       <c r="D20">
-        <v>0.051005134818773</v>
+        <v>0.06195055224402068</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.126337106171221</v>
+        <v>0.9399945986018992</v>
       </c>
       <c r="G20">
-        <v>0.002461551303546807</v>
+        <v>0.0007964142688018554</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7655790012900141</v>
+        <v>0.4472618015472918</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.681292036170845</v>
+        <v>1.84257868905587</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.627748472450108</v>
+        <v>0.6956955507829186</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6433495890300378</v>
+        <v>1.762978875471987</v>
       </c>
       <c r="C21">
-        <v>0.1326487441912718</v>
+        <v>0.3910710910740249</v>
       </c>
       <c r="D21">
-        <v>0.05230790827774712</v>
+        <v>0.0651902824867463</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.135499961765603</v>
+        <v>1.014598082625426</v>
       </c>
       <c r="G21">
-        <v>0.00245799880059605</v>
+        <v>0.0007902426357123271</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7626469690656421</v>
+        <v>0.4614988044739832</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7476056527423225</v>
+        <v>2.087622608573668</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.605284846402967</v>
+        <v>0.6396243000269735</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6802047652643921</v>
+        <v>1.898898916769241</v>
       </c>
       <c r="C22">
-        <v>0.1407405509914383</v>
+        <v>0.4221750163345632</v>
       </c>
       <c r="D22">
-        <v>0.05315389892761857</v>
+        <v>0.06730779397613418</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.14211422242488</v>
+        <v>1.065924678406205</v>
       </c>
       <c r="G22">
-        <v>0.002455764226525133</v>
+        <v>0.0007862696523407126</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7611164855318009</v>
+        <v>0.4721781119546193</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.791117682029352</v>
+        <v>2.249718246250382</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.5911543335977</v>
+        <v>0.6046098009816596</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6605217406475958</v>
+        <v>1.82620977081919</v>
       </c>
       <c r="C23">
-        <v>0.1364185092644448</v>
+        <v>0.4055242155271515</v>
       </c>
       <c r="D23">
-        <v>0.05270288222202169</v>
+        <v>0.06617756087337057</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.13852672290254</v>
+        <v>1.038281519438527</v>
       </c>
       <c r="G23">
-        <v>0.002456948906098228</v>
+        <v>0.0007883848488688137</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7618979864084849</v>
+        <v>0.466345864425314</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7678788067029245</v>
+        <v>2.163010812088572</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.598645598483998</v>
+        <v>0.6231427969206855</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5862565823181285</v>
+        <v>1.553909631316884</v>
       </c>
       <c r="C24">
-        <v>0.1201215638266717</v>
+        <v>0.3434902285333976</v>
       </c>
       <c r="D24">
-        <v>0.05098375105046671</v>
+        <v>0.06189758994121064</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.126197890424905</v>
+        <v>0.9388155645639245</v>
       </c>
       <c r="G24">
-        <v>0.002461610844516566</v>
+        <v>0.0007965162233444837</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7656334254802388</v>
+        <v>0.4470508615472966</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6802110989224275</v>
+        <v>1.838602977949222</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.628124913409023</v>
+        <v>0.6966383311054436</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5067607865452715</v>
+        <v>1.265343604069869</v>
       </c>
       <c r="C25">
-        <v>0.1026952851682381</v>
+        <v>0.2783506532381637</v>
       </c>
       <c r="D25">
-        <v>0.04910660916768705</v>
+        <v>0.05727594068053321</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.11557760885637</v>
+        <v>0.8412274011176493</v>
       </c>
       <c r="G25">
-        <v>0.002467016246473719</v>
+        <v>0.00080557352472245</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7713140020346145</v>
+        <v>0.4315083462253497</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5863939546807444</v>
+        <v>1.495532988782912</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.662281823861226</v>
+        <v>0.7823902110465468</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.056125658881683</v>
+        <v>3.416611938497283</v>
       </c>
       <c r="C2">
-        <v>0.2315239952799857</v>
+        <v>0.7056080955315167</v>
       </c>
       <c r="D2">
-        <v>0.05386258052216419</v>
+        <v>0.03339132515688803</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7763723655777426</v>
+        <v>0.8212600307304143</v>
       </c>
       <c r="G2">
-        <v>0.0008125165119460563</v>
+        <v>0.7411932185369636</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001358116209992932</v>
       </c>
       <c r="I2">
-        <v>0.4239619679213362</v>
+        <v>0.0004750063877683175</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4907839957913467</v>
       </c>
       <c r="K2">
-        <v>1.247279823740342</v>
+        <v>0.4498778426206727</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8505824836189273</v>
+        <v>0.4471193364013715</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9158369618567974</v>
+        <v>2.974868722481176</v>
       </c>
       <c r="C3">
-        <v>0.200323565926297</v>
+        <v>0.6269247097002619</v>
       </c>
       <c r="D3">
-        <v>0.05154023819061138</v>
+        <v>0.03152373464388347</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7361808002874852</v>
+        <v>0.751762714911834</v>
       </c>
       <c r="G3">
-        <v>0.0008174055159730569</v>
+        <v>0.6778943027455853</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000741511656838556</v>
       </c>
       <c r="I3">
-        <v>0.4209934696962847</v>
+        <v>0.0005598877657750911</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4668693261240833</v>
       </c>
       <c r="K3">
-        <v>1.081056135059043</v>
+        <v>0.4383682344083901</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8997180690031108</v>
+        <v>0.392999227825598</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8302808190415476</v>
+        <v>2.70359151099143</v>
       </c>
       <c r="C4">
-        <v>0.1813779853883801</v>
+        <v>0.5789418220855111</v>
       </c>
       <c r="D4">
-        <v>0.05010914323059978</v>
+        <v>0.03037981749958973</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7131754044643088</v>
+        <v>0.709855469114494</v>
       </c>
       <c r="G4">
-        <v>0.0008205018397977604</v>
+        <v>0.6397069560816107</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00137725117745946</v>
       </c>
       <c r="I4">
-        <v>0.4201426587126207</v>
+        <v>0.0009599512611755401</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.452622699015194</v>
       </c>
       <c r="K4">
-        <v>0.9797829358205377</v>
+        <v>0.4316089214309962</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9312579417016948</v>
+        <v>0.3598171058017527</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7955407901557123</v>
+        <v>2.592984105108258</v>
       </c>
       <c r="C5">
-        <v>0.1737036157794734</v>
+        <v>0.5602625653539235</v>
       </c>
       <c r="D5">
-        <v>0.0495245811433378</v>
+        <v>0.02996881783009187</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7041956778888192</v>
+        <v>0.6917310519345889</v>
       </c>
       <c r="G5">
-        <v>0.0008217878993592263</v>
+        <v>0.6229424476205594</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001700914719660163</v>
       </c>
       <c r="I5">
-        <v>0.4200282561040183</v>
+        <v>0.001275558074118166</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4462215578046909</v>
       </c>
       <c r="K5">
-        <v>0.9386834350395361</v>
+        <v>0.4280221777903819</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9444453059803131</v>
+        <v>0.3462846295750808</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7897791683576258</v>
+        <v>2.574588318197812</v>
       </c>
       <c r="C6">
-        <v>0.1724318779562708</v>
+        <v>0.5581523921963765</v>
       </c>
       <c r="D6">
-        <v>0.04942742962331792</v>
+        <v>0.02996784462309066</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7027277526052558</v>
+        <v>0.6872398913599866</v>
       </c>
       <c r="G6">
-        <v>0.0008220029301286571</v>
+        <v>0.618511841094076</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001760750906527053</v>
       </c>
       <c r="I6">
-        <v>0.4200229502735162</v>
+        <v>0.00142625378974337</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4443128385493935</v>
       </c>
       <c r="K6">
-        <v>0.9318683781777679</v>
+        <v>0.4263286150428911</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.946654985954547</v>
+        <v>0.3440176599821427</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8298118250426114</v>
+        <v>2.70202398488243</v>
       </c>
       <c r="C7">
-        <v>0.1812743085377235</v>
+        <v>0.5813954712596399</v>
       </c>
       <c r="D7">
-        <v>0.0501012653044377</v>
+        <v>0.03055874889358989</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.713052733254095</v>
+        <v>0.7055307846931811</v>
       </c>
       <c r="G7">
-        <v>0.0008205190850587634</v>
+        <v>0.634951186770877</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001387010067087302</v>
       </c>
       <c r="I7">
-        <v>0.4201401906905176</v>
+        <v>0.001202102348784706</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4502085956235078</v>
       </c>
       <c r="K7">
-        <v>0.9792280007124816</v>
+        <v>0.4285485825625663</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9314344490692843</v>
+        <v>0.3595797408790986</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.007620023657125</v>
+        <v>3.264173784406239</v>
       </c>
       <c r="C8">
-        <v>0.220717747292781</v>
+        <v>0.6820241241211136</v>
       </c>
       <c r="D8">
-        <v>0.05306285719507287</v>
+        <v>0.03299576292873496</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7621514771362712</v>
+        <v>0.7917109888323921</v>
       </c>
       <c r="G8">
-        <v>0.0008141829646501165</v>
+        <v>0.7132008499136049</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002908541034924994</v>
       </c>
       <c r="I8">
-        <v>0.422729241207616</v>
+        <v>0.0007068555607361304</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4793621396698882</v>
       </c>
       <c r="K8">
-        <v>1.18978462681207</v>
+        <v>0.4418608015400807</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8672338167220168</v>
+        <v>0.4283726186696555</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.361967798245416</v>
+        <v>4.367718079092981</v>
       </c>
       <c r="C9">
-        <v>0.3000920569374159</v>
+        <v>0.8777207872402357</v>
       </c>
       <c r="D9">
-        <v>0.05883400060981359</v>
+        <v>0.03746706401361521</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8729277583204862</v>
+        <v>0.9750198152834031</v>
       </c>
       <c r="G9">
-        <v>0.0008024817485403343</v>
+        <v>0.8810780330244228</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0004090921101098655</v>
       </c>
       <c r="I9">
-        <v>0.4360981938724038</v>
+        <v>0.002407691106587784</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5445749962939601</v>
       </c>
       <c r="K9">
-        <v>1.610323484738899</v>
+        <v>0.4761101361871809</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7526868859855789</v>
+        <v>0.5640461129047054</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.627353397959467</v>
+        <v>5.180398079075587</v>
       </c>
       <c r="C10">
-        <v>0.3601683639157329</v>
+        <v>1.03982895461499</v>
       </c>
       <c r="D10">
-        <v>0.06305935063438994</v>
+        <v>0.04187853704702604</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9649817306319193</v>
+        <v>1.093265978969498</v>
       </c>
       <c r="G10">
-        <v>0.0007942880374139166</v>
+        <v>0.9851351043434704</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00218771383325933</v>
       </c>
       <c r="I10">
-        <v>0.4518412321876184</v>
+        <v>0.005904473915067321</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5830642544183746</v>
       </c>
       <c r="K10">
-        <v>1.926037378901896</v>
+        <v>0.4875784250707014</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6761542762602595</v>
+        <v>0.6338774620099059</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.749566449359691</v>
+        <v>5.544545392033854</v>
       </c>
       <c r="C11">
-        <v>0.3880090492069712</v>
+        <v>1.25015528408079</v>
       </c>
       <c r="D11">
-        <v>0.06498036311071331</v>
+        <v>0.05446845815713885</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.009618678190989</v>
+        <v>0.9733459724857596</v>
       </c>
       <c r="G11">
-        <v>0.0007906389309975228</v>
+        <v>0.8417027456474386</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02074530582504153</v>
       </c>
       <c r="I11">
-        <v>0.4604983010599852</v>
+        <v>0.007655440903753252</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5037498693716174</v>
       </c>
       <c r="K11">
-        <v>2.071635829793763</v>
+        <v>0.374188221947243</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6431643635247717</v>
+        <v>0.4275084019061239</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.796094017269496</v>
+        <v>5.680486412668756</v>
       </c>
       <c r="C12">
-        <v>0.3986368342474123</v>
+        <v>1.401391014177648</v>
       </c>
       <c r="D12">
-        <v>0.0657078199151897</v>
+        <v>0.06580873482303673</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.026958834023475</v>
+        <v>0.8588964362515696</v>
       </c>
       <c r="G12">
-        <v>0.0007892675505888217</v>
+        <v>0.7145508271509726</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05919310778637055</v>
       </c>
       <c r="I12">
-        <v>0.4640106557200738</v>
+        <v>0.007946819726637244</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4363329770595357</v>
       </c>
       <c r="K12">
-        <v>2.127100451945552</v>
+        <v>0.2928667750637572</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6309502282986621</v>
+        <v>0.2765434103638</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.786061861266546</v>
+        <v>5.646973806974927</v>
       </c>
       <c r="C13">
-        <v>0.3963439697642741</v>
+        <v>1.518301342209668</v>
       </c>
       <c r="D13">
-        <v>0.06555114560811859</v>
+        <v>0.0769720575463495</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.023204206399754</v>
+        <v>0.7355397168908837</v>
       </c>
       <c r="G13">
-        <v>0.0007895624501366458</v>
+        <v>0.5853968075194871</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1145224545274601</v>
       </c>
       <c r="I13">
-        <v>0.463243474470481</v>
+        <v>0.007372721341400101</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3704214179703627</v>
       </c>
       <c r="K13">
-        <v>2.115139731457617</v>
+        <v>0.2265732630831323</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6335681088371885</v>
+        <v>0.1599567257784997</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.753389121070001</v>
+        <v>5.546801791217433</v>
       </c>
       <c r="C14">
-        <v>0.3888816276736407</v>
+        <v>1.586241854231162</v>
       </c>
       <c r="D14">
-        <v>0.06504021013377326</v>
+        <v>0.08494963394350918</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.011036261365277</v>
+        <v>0.6456815384392343</v>
       </c>
       <c r="G14">
-        <v>0.0007905259019439114</v>
+        <v>0.4950321998099696</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1635260220255645</v>
       </c>
       <c r="I14">
-        <v>0.4607824577780306</v>
+        <v>0.006693284742859795</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3253435070194683</v>
       </c>
       <c r="K14">
-        <v>2.076192058577959</v>
+        <v>0.1883215000517779</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6421538228355672</v>
+        <v>0.09960919131977164</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.733409503570954</v>
+        <v>5.486183532560744</v>
       </c>
       <c r="C15">
-        <v>0.3843221733674511</v>
+        <v>1.595055409503175</v>
       </c>
       <c r="D15">
-        <v>0.06472725432702475</v>
+        <v>0.0867185113441522</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.003641215024885</v>
+        <v>0.6201602257221737</v>
       </c>
       <c r="G15">
-        <v>0.0007911173810755012</v>
+        <v>0.470398086527652</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.175889683813736</v>
       </c>
       <c r="I15">
-        <v>0.4593060950618977</v>
+        <v>0.0064538368150453</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3135963900776062</v>
       </c>
       <c r="K15">
-        <v>2.052379820087396</v>
+        <v>0.1801367536102774</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6474495772696578</v>
+        <v>0.08746532481067959</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.619399283791722</v>
+        <v>5.141547959798288</v>
       </c>
       <c r="C16">
-        <v>0.3583601693365495</v>
+        <v>1.498203721031871</v>
       </c>
       <c r="D16">
-        <v>0.06293379963566537</v>
+        <v>0.08224815117533524</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9621235118054869</v>
+        <v>0.5934605049529722</v>
       </c>
       <c r="G16">
-        <v>0.0007945280231132696</v>
+        <v>0.4510751075219446</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624866714540758</v>
       </c>
       <c r="I16">
-        <v>0.451307159035828</v>
+        <v>0.004975134678366189</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3096715578894731</v>
       </c>
       <c r="K16">
-        <v>1.916565762694177</v>
+        <v>0.1876352680740894</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6783483067536515</v>
+        <v>0.08523594701132708</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.549862205596042</v>
+        <v>4.931221550402142</v>
       </c>
       <c r="C17">
-        <v>0.3425722674328711</v>
+        <v>1.387974911362676</v>
       </c>
       <c r="D17">
-        <v>0.0618334021182676</v>
+        <v>0.07451177737503656</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.937388414941438</v>
+        <v>0.6199046703164015</v>
       </c>
       <c r="G17">
-        <v>0.0007966398370808118</v>
+        <v>0.4830587622486746</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1244040062426421</v>
       </c>
       <c r="I17">
-        <v>0.4467961734324319</v>
+        <v>0.004285909871170723</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.330108893995174</v>
       </c>
       <c r="K17">
-        <v>1.833785920682033</v>
+        <v>0.2124683350870455</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.697782095270604</v>
+        <v>0.111470122053305</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.510004145896232</v>
+        <v>4.811898877014016</v>
       </c>
       <c r="C18">
-        <v>0.33353889531611</v>
+        <v>1.255673169038801</v>
       </c>
       <c r="D18">
-        <v>0.06120036555510211</v>
+        <v>0.06366800963005659</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9234187449457352</v>
+        <v>0.7007610859812274</v>
       </c>
       <c r="G18">
-        <v>0.0007978619133250052</v>
+        <v>0.5703246277030161</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0715351088769296</v>
       </c>
       <c r="I18">
-        <v>0.4443411047719081</v>
+        <v>0.003822096903173922</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3774741183595012</v>
       </c>
       <c r="K18">
-        <v>1.786356460504976</v>
+        <v>0.262585112074742</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7091306566531266</v>
+        <v>0.1840604458330404</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.496531568430669</v>
+        <v>4.774080261192182</v>
       </c>
       <c r="C19">
-        <v>0.3304881584816997</v>
+        <v>1.129016762075025</v>
       </c>
       <c r="D19">
-        <v>0.06098600525549358</v>
+        <v>0.05296508450686588</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9187318795074049</v>
+        <v>0.8186970942635412</v>
       </c>
       <c r="G19">
-        <v>0.0007982769844558729</v>
+        <v>0.697150912739005</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02651572887594256</v>
       </c>
       <c r="I19">
-        <v>0.4435332698394987</v>
+        <v>0.004064746456653445</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4434057737144883</v>
       </c>
       <c r="K19">
-        <v>1.770327831908361</v>
+        <v>0.3355374581561144</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7130019474731562</v>
+        <v>0.3174765772988337</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.557250042997737</v>
+        <v>4.966342924548997</v>
       </c>
       <c r="C20">
-        <v>0.3442479292683061</v>
+        <v>1.006417936273238</v>
       </c>
       <c r="D20">
-        <v>0.06195055224402068</v>
+        <v>0.04138789688287403</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9399945986018992</v>
+        <v>1.048203882335926</v>
       </c>
       <c r="G20">
-        <v>0.0007964142688018554</v>
+        <v>0.942356875131253</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001570184129729313</v>
       </c>
       <c r="I20">
-        <v>0.4472618015472918</v>
+        <v>0.005502420677894193</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5650690729386554</v>
       </c>
       <c r="K20">
-        <v>1.84257868905587</v>
+        <v>0.4746097518607399</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6956955507829186</v>
+        <v>0.6140369191774084</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.762978875471987</v>
+        <v>5.592621575629096</v>
       </c>
       <c r="C21">
-        <v>0.3910710910740249</v>
+        <v>1.108662252568138</v>
       </c>
       <c r="D21">
-        <v>0.0651902824867463</v>
+        <v>0.04311329513959805</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.014598082625426</v>
+        <v>1.174743409879611</v>
       </c>
       <c r="G21">
-        <v>0.0007902426357123271</v>
+        <v>1.061531034939975</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003466682342285643</v>
       </c>
       <c r="I21">
-        <v>0.4614988044739832</v>
+        <v>0.008966066972949882</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.614644949633032</v>
       </c>
       <c r="K21">
-        <v>2.087622608573668</v>
+        <v>0.5083916995859994</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6396243000269735</v>
+        <v>0.7154611306161911</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.898898916769241</v>
+        <v>6.002966124715158</v>
       </c>
       <c r="C22">
-        <v>0.4221750163345632</v>
+        <v>1.179809712368865</v>
       </c>
       <c r="D22">
-        <v>0.06730779397613418</v>
+        <v>0.04450157536892618</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.065924678406205</v>
+        <v>1.254136776722461</v>
       </c>
       <c r="G22">
-        <v>0.0007862696523407126</v>
+        <v>1.135517369996052</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.005119026844868313</v>
       </c>
       <c r="I22">
-        <v>0.4721781119546193</v>
+        <v>0.01146089891621926</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6451077792705178</v>
       </c>
       <c r="K22">
-        <v>2.249718246250382</v>
+        <v>0.5276297512890054</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6046098009816596</v>
+        <v>0.7665220348376067</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.82620977081919</v>
+        <v>5.783989001916552</v>
       </c>
       <c r="C23">
-        <v>0.4055242155271515</v>
+        <v>1.138400035708912</v>
       </c>
       <c r="D23">
-        <v>0.06617756087337057</v>
+        <v>0.0435215176055479</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.038281519438527</v>
+        <v>1.216475613947267</v>
       </c>
       <c r="G23">
-        <v>0.0007883848488688137</v>
+        <v>1.101283041048447</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004208675104459769</v>
       </c>
       <c r="I23">
-        <v>0.466345864425314</v>
+        <v>0.009823548981703567</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6315137718595452</v>
       </c>
       <c r="K23">
-        <v>2.163010812088572</v>
+        <v>0.5208182276985838</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6231427969206855</v>
+        <v>0.7393058299502684</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.553909631316884</v>
+        <v>4.956932965501323</v>
       </c>
       <c r="C24">
-        <v>0.3434902285333976</v>
+        <v>0.9885728686837183</v>
       </c>
       <c r="D24">
-        <v>0.06189758994121064</v>
+        <v>0.04020022495330267</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9388155645639245</v>
+        <v>1.069358294965809</v>
       </c>
       <c r="G24">
-        <v>0.0007965162233444837</v>
+        <v>0.9661519535162597</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001526670162037336</v>
       </c>
       <c r="I24">
-        <v>0.4470508615472966</v>
+        <v>0.00508148660534502</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5773274423462738</v>
       </c>
       <c r="K24">
-        <v>1.838602977949222</v>
+        <v>0.4907310716914282</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6966383311054436</v>
+        <v>0.6367451375442812</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.265343604069869</v>
+        <v>4.068670811421271</v>
       </c>
       <c r="C25">
-        <v>0.2783506532381637</v>
+        <v>0.8293619873543321</v>
       </c>
       <c r="D25">
-        <v>0.05727594068053321</v>
+        <v>0.03660403352272823</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8412274011176493</v>
+        <v>0.9171299848763823</v>
       </c>
       <c r="G25">
-        <v>0.00080557352472245</v>
+        <v>0.8266208023886321</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0001054893084098119</v>
       </c>
       <c r="I25">
-        <v>0.4315083462253497</v>
+        <v>0.001970321496256311</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5222560003255126</v>
       </c>
       <c r="K25">
-        <v>1.495532988782912</v>
+        <v>0.4610910793824843</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7823902110465468</v>
+        <v>0.5271276241290224</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.416611938497283</v>
+        <v>3.420300003892066</v>
       </c>
       <c r="C2">
-        <v>0.7056080955315167</v>
+        <v>0.761362224569524</v>
       </c>
       <c r="D2">
-        <v>0.03339132515688803</v>
+        <v>0.0384116062534865</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8212600307304143</v>
+        <v>0.7166054292337662</v>
       </c>
       <c r="G2">
-        <v>0.7411932185369636</v>
+        <v>0.6046572138384221</v>
       </c>
       <c r="H2">
-        <v>0.0001358116209992932</v>
+        <v>7.911166346441512E-05</v>
       </c>
       <c r="I2">
-        <v>0.0004750063877683175</v>
+        <v>0.0006327454673629163</v>
       </c>
       <c r="J2">
-        <v>0.4907839957913467</v>
+        <v>0.4747734396840286</v>
       </c>
       <c r="K2">
-        <v>0.4498778426206727</v>
+        <v>0.3687131726369515</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1884836524878324</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09792780220722719</v>
       </c>
       <c r="N2">
-        <v>0.4471193364013715</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4492861882841623</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.974868722481176</v>
+        <v>2.979696898721613</v>
       </c>
       <c r="C3">
-        <v>0.6269247097002619</v>
+        <v>0.6692260542647261</v>
       </c>
       <c r="D3">
-        <v>0.03152373464388347</v>
+        <v>0.03522169299946754</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.751762714911834</v>
+        <v>0.6634257881776193</v>
       </c>
       <c r="G3">
-        <v>0.6778943027455853</v>
+        <v>0.5596800804883628</v>
       </c>
       <c r="H3">
-        <v>0.000741511656838556</v>
+        <v>0.0005310629325774308</v>
       </c>
       <c r="I3">
-        <v>0.0005598877657750911</v>
+        <v>0.0005355563050049028</v>
       </c>
       <c r="J3">
-        <v>0.4668693261240833</v>
+        <v>0.4563262876785217</v>
       </c>
       <c r="K3">
-        <v>0.4383682344083901</v>
+        <v>0.3670394590766648</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1926349206642506</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09330901661941837</v>
       </c>
       <c r="N3">
-        <v>0.392999227825598</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3961494681761479</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.70359151099143</v>
+        <v>2.708877976373287</v>
       </c>
       <c r="C4">
-        <v>0.5789418220855111</v>
+        <v>0.613160507810079</v>
       </c>
       <c r="D4">
-        <v>0.03037981749958973</v>
+        <v>0.03328483173302388</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.709855469114494</v>
+        <v>0.6312497426833943</v>
       </c>
       <c r="G4">
-        <v>0.6397069560816107</v>
+        <v>0.5326563844451186</v>
       </c>
       <c r="H4">
-        <v>0.00137725117745946</v>
+        <v>0.001025795885716385</v>
       </c>
       <c r="I4">
-        <v>0.0009599512611755401</v>
+        <v>0.0007503981221743672</v>
       </c>
       <c r="J4">
-        <v>0.452622699015194</v>
+        <v>0.445043704811809</v>
       </c>
       <c r="K4">
-        <v>0.4316089214309962</v>
+        <v>0.3661848992954653</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1951526603694234</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09116152127306876</v>
       </c>
       <c r="N4">
-        <v>0.3598171058017527</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3635391452616261</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.592984105108258</v>
+        <v>2.598402912899076</v>
       </c>
       <c r="C5">
-        <v>0.5602625653539235</v>
+        <v>0.591227160086504</v>
       </c>
       <c r="D5">
-        <v>0.02996881783009187</v>
+        <v>0.03256137410710735</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6917310519345889</v>
+        <v>0.6171966187720557</v>
       </c>
       <c r="G5">
-        <v>0.6229424476205594</v>
+        <v>0.5206402857685077</v>
       </c>
       <c r="H5">
-        <v>0.001700914719660163</v>
+        <v>0.001280628678771878</v>
       </c>
       <c r="I5">
-        <v>0.001275558074118166</v>
+        <v>0.000985334716903985</v>
       </c>
       <c r="J5">
-        <v>0.4462215578046909</v>
+        <v>0.4398466780643702</v>
       </c>
       <c r="K5">
-        <v>0.4280221777903819</v>
+        <v>0.3651537208919642</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1958329008139401</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09025061629704112</v>
       </c>
       <c r="N5">
-        <v>0.3462846295750808</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3502336175963734</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.574588318197812</v>
+        <v>2.580025717323679</v>
       </c>
       <c r="C6">
-        <v>0.5581523921963765</v>
+        <v>0.588572925574681</v>
       </c>
       <c r="D6">
-        <v>0.02996784462309066</v>
+        <v>0.03251617516867711</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6872398913599866</v>
+        <v>0.6135904772461203</v>
       </c>
       <c r="G6">
-        <v>0.618511841094076</v>
+        <v>0.5172661730564272</v>
       </c>
       <c r="H6">
-        <v>0.001760750906527053</v>
+        <v>0.001327930039738745</v>
       </c>
       <c r="I6">
-        <v>0.00142625378974337</v>
+        <v>0.001137839779977945</v>
       </c>
       <c r="J6">
-        <v>0.4443128385493935</v>
+        <v>0.4382426910486572</v>
       </c>
       <c r="K6">
-        <v>0.4263286150428911</v>
+        <v>0.3641045626420656</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1955344301529252</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08985846792613117</v>
       </c>
       <c r="N6">
-        <v>0.3440176599821427</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3480048289025319</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.70202398488243</v>
+        <v>2.707273650896752</v>
       </c>
       <c r="C7">
-        <v>0.5813954712596399</v>
+        <v>0.6146788501970377</v>
       </c>
       <c r="D7">
-        <v>0.03055874889358989</v>
+        <v>0.03361122440590947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7055307846931811</v>
+        <v>0.6254701369119076</v>
       </c>
       <c r="G7">
-        <v>0.634951186770877</v>
+        <v>0.5315181853811595</v>
       </c>
       <c r="H7">
-        <v>0.001387010067087302</v>
+        <v>0.001035884502298301</v>
       </c>
       <c r="I7">
-        <v>0.001202102348784706</v>
+        <v>0.001035411433384148</v>
       </c>
       <c r="J7">
-        <v>0.4502085956235078</v>
+        <v>0.4363907398389699</v>
       </c>
       <c r="K7">
-        <v>0.4285485825625663</v>
+        <v>0.3627513656144359</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1935961642482766</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09014138938433192</v>
       </c>
       <c r="N7">
-        <v>0.3595797408790986</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3632806113631091</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.264173784406239</v>
+        <v>3.268168626115539</v>
       </c>
       <c r="C8">
-        <v>0.6820241241211136</v>
+        <v>0.7301474236068088</v>
       </c>
       <c r="D8">
-        <v>0.03299576292873496</v>
+        <v>0.03803766970178657</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7917109888323921</v>
+        <v>0.6866098393176898</v>
       </c>
       <c r="G8">
-        <v>0.7132008499136049</v>
+        <v>0.59344225637102</v>
       </c>
       <c r="H8">
-        <v>0.0002908541034924994</v>
+        <v>0.0001935603699319</v>
       </c>
       <c r="I8">
-        <v>0.0007068555607361304</v>
+        <v>0.0008707416792343992</v>
       </c>
       <c r="J8">
-        <v>0.4793621396698882</v>
+        <v>0.4442480116064047</v>
       </c>
       <c r="K8">
-        <v>0.4418608015400807</v>
+        <v>0.3616433696179335</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1871665296949914</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.09408556936105938</v>
       </c>
       <c r="N8">
-        <v>0.4283726186696555</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4308029551947641</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.367718079092981</v>
+        <v>4.367136175478208</v>
       </c>
       <c r="C9">
-        <v>0.8777207872402357</v>
+        <v>0.9595100215318269</v>
       </c>
       <c r="D9">
-        <v>0.03746706401361521</v>
+        <v>0.04604337622458132</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9750198152834031</v>
+        <v>0.8248055795548055</v>
       </c>
       <c r="G9">
-        <v>0.8810780330244228</v>
+        <v>0.716935380737894</v>
       </c>
       <c r="H9">
-        <v>0.0004090921101098655</v>
+        <v>0.0003955579637922035</v>
       </c>
       <c r="I9">
-        <v>0.002407691106587784</v>
+        <v>0.002495450305698199</v>
       </c>
       <c r="J9">
-        <v>0.5445749962939601</v>
+        <v>0.487072529891492</v>
       </c>
       <c r="K9">
-        <v>0.4761101361871809</v>
+        <v>0.3689720120561404</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1777947735545915</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.109941251809321</v>
       </c>
       <c r="N9">
-        <v>0.5640461129047054</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5637580175641403</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.180398079075587</v>
+        <v>5.174412378314855</v>
       </c>
       <c r="C10">
-        <v>1.03982895461499</v>
+        <v>1.140595248240089</v>
       </c>
       <c r="D10">
-        <v>0.04187853704702604</v>
+        <v>0.0541125870474275</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.093265978969498</v>
+        <v>0.9012815772769613</v>
       </c>
       <c r="G10">
-        <v>0.9851351043434704</v>
+        <v>0.8108488461663796</v>
       </c>
       <c r="H10">
-        <v>0.00218771383325933</v>
+        <v>0.001934878849537025</v>
       </c>
       <c r="I10">
-        <v>0.005904473915067321</v>
+        <v>0.005457954270597476</v>
       </c>
       <c r="J10">
-        <v>0.5830642544183746</v>
+        <v>0.4739326397106112</v>
       </c>
       <c r="K10">
-        <v>0.4875784250707014</v>
+        <v>0.3593479049623411</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1650390266611552</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1187366561616194</v>
       </c>
       <c r="N10">
-        <v>0.6338774620099059</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.6312530409946504</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.544545392033854</v>
+        <v>5.536227759091787</v>
       </c>
       <c r="C11">
-        <v>1.25015528408079</v>
+        <v>1.336609324157507</v>
       </c>
       <c r="D11">
-        <v>0.05446845815713885</v>
+        <v>0.07067662005116659</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9733459724857596</v>
+        <v>0.7863601313508042</v>
       </c>
       <c r="G11">
-        <v>0.8417027456474386</v>
+        <v>0.7367053391827341</v>
       </c>
       <c r="H11">
-        <v>0.02074530582504153</v>
+        <v>0.02041593824228727</v>
       </c>
       <c r="I11">
-        <v>0.007655440903753252</v>
+        <v>0.007030174596120986</v>
       </c>
       <c r="J11">
-        <v>0.5037498693716174</v>
+        <v>0.3501768282642104</v>
       </c>
       <c r="K11">
-        <v>0.374188221947243</v>
+        <v>0.2688151320641694</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.129949787557436</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08753549201917465</v>
       </c>
       <c r="N11">
-        <v>0.4275084019061239</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4243934408064973</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.680486412668756</v>
+        <v>5.671567680362386</v>
       </c>
       <c r="C12">
-        <v>1.401391014177648</v>
+        <v>1.471168249448453</v>
       </c>
       <c r="D12">
-        <v>0.06580873482303673</v>
+        <v>0.08375710177875106</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8588964362515696</v>
+        <v>0.6907515421823831</v>
       </c>
       <c r="G12">
-        <v>0.7145508271509726</v>
+        <v>0.6531488560286931</v>
       </c>
       <c r="H12">
-        <v>0.05919310778637055</v>
+        <v>0.05886645845068017</v>
       </c>
       <c r="I12">
-        <v>0.007946819726637244</v>
+        <v>0.007247783210857506</v>
       </c>
       <c r="J12">
-        <v>0.4363329770595357</v>
+        <v>0.2824400160153857</v>
       </c>
       <c r="K12">
-        <v>0.2928667750637572</v>
+        <v>0.2113725838279912</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1097028836949399</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06526495441574198</v>
       </c>
       <c r="N12">
-        <v>0.2765434103638</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2735657276947308</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.646973806974927</v>
+        <v>5.638982824010611</v>
       </c>
       <c r="C13">
-        <v>1.518301342209668</v>
+        <v>1.572290812128358</v>
       </c>
       <c r="D13">
-        <v>0.0769720575463495</v>
+        <v>0.09412595483934183</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7355397168908837</v>
+        <v>0.6015804188520164</v>
       </c>
       <c r="G13">
-        <v>0.5853968075194871</v>
+        <v>0.5467354322946534</v>
       </c>
       <c r="H13">
-        <v>0.1145224545274601</v>
+        <v>0.1142614412739817</v>
       </c>
       <c r="I13">
-        <v>0.007372721341400101</v>
+        <v>0.006788934041573214</v>
       </c>
       <c r="J13">
-        <v>0.3704214179703627</v>
+        <v>0.2506985140365288</v>
       </c>
       <c r="K13">
-        <v>0.2265732630831323</v>
+        <v>0.1713516700752997</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09686631692646763</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0477136217819254</v>
       </c>
       <c r="N13">
-        <v>0.1599567257784997</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1575223273837807</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.546801791217433</v>
+        <v>5.540083305450082</v>
       </c>
       <c r="C14">
-        <v>1.586241854231162</v>
+        <v>1.629491595438992</v>
       </c>
       <c r="D14">
-        <v>0.08494963394350918</v>
+        <v>0.1001860792148506</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6456815384392343</v>
+        <v>0.5409216321697983</v>
       </c>
       <c r="G14">
-        <v>0.4950321998099696</v>
+        <v>0.4643287706847019</v>
       </c>
       <c r="H14">
-        <v>0.1635260220255645</v>
+        <v>0.1633284094789786</v>
       </c>
       <c r="I14">
-        <v>0.006693284742859795</v>
+        <v>0.006277198906452952</v>
       </c>
       <c r="J14">
-        <v>0.3253435070194683</v>
+        <v>0.2405949386010988</v>
       </c>
       <c r="K14">
-        <v>0.1883215000517779</v>
+        <v>0.1507537442903963</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09069318325511766</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03776792381968441</v>
       </c>
       <c r="N14">
-        <v>0.09960919131977164</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.09766966300600188</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.486183532560744</v>
+        <v>5.480086490255303</v>
       </c>
       <c r="C15">
-        <v>1.595055409503175</v>
+        <v>1.636215217508322</v>
       </c>
       <c r="D15">
-        <v>0.0867185113441522</v>
+        <v>0.1009754524173374</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6201602257221737</v>
+        <v>0.5252684273613113</v>
       </c>
       <c r="G15">
-        <v>0.470398086527652</v>
+        <v>0.4391081799463734</v>
       </c>
       <c r="H15">
-        <v>0.175889683813736</v>
+        <v>0.1757192113554851</v>
       </c>
       <c r="I15">
-        <v>0.0064538368150453</v>
+        <v>0.006136976038299657</v>
       </c>
       <c r="J15">
-        <v>0.3135963900776062</v>
+        <v>0.2425113547876805</v>
       </c>
       <c r="K15">
-        <v>0.1801367536102774</v>
+        <v>0.1472698019689975</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0897948128043593</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03569334519124645</v>
       </c>
       <c r="N15">
-        <v>0.08746532481067959</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.08571844379832783</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.141547959798288</v>
+        <v>5.138308429514723</v>
       </c>
       <c r="C16">
-        <v>1.498203721031871</v>
+        <v>1.545112446909513</v>
       </c>
       <c r="D16">
-        <v>0.08224815117533524</v>
+        <v>0.09267216321563154</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5934605049529722</v>
+        <v>0.5224787585990214</v>
       </c>
       <c r="G16">
-        <v>0.4510751075219446</v>
+        <v>0.3995468207813673</v>
       </c>
       <c r="H16">
-        <v>0.1624866714540758</v>
+        <v>0.1624218580154349</v>
       </c>
       <c r="I16">
-        <v>0.004975134678366189</v>
+        <v>0.004996195645890822</v>
       </c>
       <c r="J16">
-        <v>0.3096715578894731</v>
+        <v>0.2856280442835555</v>
       </c>
       <c r="K16">
-        <v>0.1876352680740894</v>
+        <v>0.1602005611077644</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09527242805438085</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03814214033333485</v>
       </c>
       <c r="N16">
-        <v>0.08523594701132708</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.08425224698266476</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.931221550402142</v>
+        <v>4.929351640585253</v>
       </c>
       <c r="C17">
-        <v>1.387974911362676</v>
+        <v>1.442925769943031</v>
       </c>
       <c r="D17">
-        <v>0.07451177737503656</v>
+        <v>0.08368527433833606</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6199046703164015</v>
+        <v>0.5507470364748741</v>
       </c>
       <c r="G17">
-        <v>0.4830587622486746</v>
+        <v>0.4142082137351082</v>
       </c>
       <c r="H17">
-        <v>0.1244040062426421</v>
+        <v>0.124375399449363</v>
       </c>
       <c r="I17">
-        <v>0.004285909871170723</v>
+        <v>0.004455402708670064</v>
       </c>
       <c r="J17">
-        <v>0.330108893995174</v>
+        <v>0.3225633114215327</v>
       </c>
       <c r="K17">
-        <v>0.2124683350870455</v>
+        <v>0.1811061539635013</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1034100400366196</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04477981744065751</v>
       </c>
       <c r="N17">
-        <v>0.111470122053305</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1108573324237483</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.811898877014016</v>
+        <v>4.810492839967935</v>
       </c>
       <c r="C18">
-        <v>1.255673169038801</v>
+        <v>1.322820465355392</v>
       </c>
       <c r="D18">
-        <v>0.06366800963005659</v>
+        <v>0.07287364852644629</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7007610859812274</v>
+        <v>0.6171142709254553</v>
       </c>
       <c r="G18">
-        <v>0.5703246277030161</v>
+        <v>0.4768405640181328</v>
       </c>
       <c r="H18">
-        <v>0.0715351088769296</v>
+        <v>0.07151413748559321</v>
       </c>
       <c r="I18">
-        <v>0.003822096903173922</v>
+        <v>0.003988962000389229</v>
       </c>
       <c r="J18">
-        <v>0.3774741183595012</v>
+        <v>0.3688202003221903</v>
       </c>
       <c r="K18">
-        <v>0.262585112074742</v>
+        <v>0.2177164838015813</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1172800208314069</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05799092203070444</v>
       </c>
       <c r="N18">
-        <v>0.1840604458330404</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1835520849763768</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.774080261192182</v>
+        <v>4.772395451844659</v>
       </c>
       <c r="C19">
-        <v>1.129016762075025</v>
+        <v>1.209584535912199</v>
       </c>
       <c r="D19">
-        <v>0.05296508450686588</v>
+        <v>0.06261225429876305</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8186970942635412</v>
+        <v>0.7088775491338168</v>
       </c>
       <c r="G19">
-        <v>0.697150912739005</v>
+        <v>0.5713722062551767</v>
       </c>
       <c r="H19">
-        <v>0.02651572887594256</v>
+        <v>0.02648210070716317</v>
       </c>
       <c r="I19">
-        <v>0.004064746456653445</v>
+        <v>0.004230440498634636</v>
       </c>
       <c r="J19">
-        <v>0.4434057737144883</v>
+        <v>0.422095166255005</v>
       </c>
       <c r="K19">
-        <v>0.3355374581561144</v>
+        <v>0.2684292281036917</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1361509816455282</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07719073665973042</v>
       </c>
       <c r="N19">
-        <v>0.3174765772988337</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3167992860859385</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.966342924548997</v>
+        <v>4.962177264729405</v>
       </c>
       <c r="C20">
-        <v>1.006417936273238</v>
+        <v>1.105506629471591</v>
       </c>
       <c r="D20">
-        <v>0.04138789688287403</v>
+        <v>0.05221735015825146</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.048203882335926</v>
+        <v>0.8771305417075723</v>
       </c>
       <c r="G20">
-        <v>0.942356875131253</v>
+        <v>0.7631011712313693</v>
       </c>
       <c r="H20">
-        <v>0.001570184129729313</v>
+        <v>0.001412843284456677</v>
       </c>
       <c r="I20">
-        <v>0.005502420677894193</v>
+        <v>0.00542228477418405</v>
       </c>
       <c r="J20">
-        <v>0.5650690729386554</v>
+        <v>0.4932961294705507</v>
       </c>
       <c r="K20">
-        <v>0.4746097518607399</v>
+        <v>0.3578764852616878</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1669116172283438</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1147186600724694</v>
       </c>
       <c r="N20">
-        <v>0.6140369191774084</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.6121563034942454</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.592621575629096</v>
+        <v>5.582230521522263</v>
       </c>
       <c r="C21">
-        <v>1.108662252568138</v>
+        <v>1.206726477138403</v>
       </c>
       <c r="D21">
-        <v>0.04311329513959805</v>
+        <v>0.05962623666349032</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.174743409879611</v>
+        <v>0.9236140594363889</v>
       </c>
       <c r="G21">
-        <v>1.061531034939975</v>
+        <v>0.9220033491275217</v>
       </c>
       <c r="H21">
-        <v>0.003466682342285643</v>
+        <v>0.002935831570269665</v>
       </c>
       <c r="I21">
-        <v>0.008966066972949882</v>
+        <v>0.008107995297440773</v>
       </c>
       <c r="J21">
-        <v>0.614644949633032</v>
+        <v>0.3895639230501473</v>
       </c>
       <c r="K21">
-        <v>0.5083916995859994</v>
+        <v>0.3497560035478529</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1571422247376475</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1217284863368704</v>
       </c>
       <c r="N21">
-        <v>0.7154611306161911</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.7110520462750571</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.002966124715158</v>
+        <v>5.987909618403023</v>
       </c>
       <c r="C22">
-        <v>1.179809712368865</v>
+        <v>1.275112548526977</v>
       </c>
       <c r="D22">
-        <v>0.04450157536892618</v>
+        <v>0.06514356505821439</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.254136776722461</v>
+        <v>0.9483649662462312</v>
       </c>
       <c r="G22">
-        <v>1.135517369996052</v>
+        <v>1.03141766758408</v>
       </c>
       <c r="H22">
-        <v>0.005119026844868313</v>
+        <v>0.004252481717394896</v>
       </c>
       <c r="I22">
-        <v>0.01146089891621926</v>
+        <v>0.009870571721368293</v>
       </c>
       <c r="J22">
-        <v>0.6451077792705178</v>
+        <v>0.3231653459522903</v>
       </c>
       <c r="K22">
-        <v>0.5276297512890054</v>
+        <v>0.3414309250174057</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1498882721348167</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1253849685759043</v>
       </c>
       <c r="N22">
-        <v>0.7665220348376067</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.7603923190222872</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.783989001916552</v>
+        <v>5.771602878921726</v>
       </c>
       <c r="C23">
-        <v>1.138400035708912</v>
+        <v>1.237636473429518</v>
       </c>
       <c r="D23">
-        <v>0.0435215176055479</v>
+        <v>0.06145003642685509</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.216475613947267</v>
+        <v>0.9444082100104367</v>
       </c>
       <c r="G23">
-        <v>1.101283041048447</v>
+        <v>0.9689363121755292</v>
       </c>
       <c r="H23">
-        <v>0.004208675104459769</v>
+        <v>0.003536307153600426</v>
       </c>
       <c r="I23">
-        <v>0.009823548981703567</v>
+        <v>0.008587384379721286</v>
       </c>
       <c r="J23">
-        <v>0.6315137718595452</v>
+        <v>0.3723513967730554</v>
       </c>
       <c r="K23">
-        <v>0.5208182276985838</v>
+        <v>0.3507323645424094</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1553728369152232</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1254395318664088</v>
       </c>
       <c r="N23">
-        <v>0.7393058299502684</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.7341545865224361</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.956932965501323</v>
+        <v>4.95272201768671</v>
       </c>
       <c r="C24">
-        <v>0.9885728686837183</v>
+        <v>1.08840468589483</v>
       </c>
       <c r="D24">
-        <v>0.04020022495330267</v>
+        <v>0.05086167754265603</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.069358294965809</v>
+        <v>0.8940482606588773</v>
       </c>
       <c r="G24">
-        <v>0.9661519535162597</v>
+        <v>0.7808934656947031</v>
       </c>
       <c r="H24">
-        <v>0.001526670162037336</v>
+        <v>0.001363588805078031</v>
       </c>
       <c r="I24">
-        <v>0.00508148660534502</v>
+        <v>0.0048938422205973</v>
       </c>
       <c r="J24">
-        <v>0.5773274423462738</v>
+        <v>0.5038657964324358</v>
       </c>
       <c r="K24">
-        <v>0.4907310716914282</v>
+        <v>0.3694928062194549</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1712179977109045</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1191279307599054</v>
       </c>
       <c r="N24">
-        <v>0.6367451375442812</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.6348233785036683</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.068670811421271</v>
+        <v>4.069702662432348</v>
       </c>
       <c r="C25">
-        <v>0.8293619873543321</v>
+        <v>0.9032176483966623</v>
       </c>
       <c r="D25">
-        <v>0.03660403352272823</v>
+        <v>0.04406067503460065</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9171299848763823</v>
+        <v>0.7836039653011682</v>
       </c>
       <c r="G25">
-        <v>0.8266208023886321</v>
+        <v>0.6719366429705786</v>
       </c>
       <c r="H25">
-        <v>0.0001054893084098119</v>
+        <v>0.0001191397752668966</v>
       </c>
       <c r="I25">
-        <v>0.001970321496256311</v>
+        <v>0.002247647363948779</v>
       </c>
       <c r="J25">
-        <v>0.5222560003255126</v>
+        <v>0.4810635401233725</v>
       </c>
       <c r="K25">
-        <v>0.4610910793824843</v>
+        <v>0.3640679412004708</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1792959714126994</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1040333116416576</v>
       </c>
       <c r="N25">
-        <v>0.5271276241290224</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.5276637287925467</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
